--- a/Template planning.xlsx
+++ b/Template planning.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="ouinon">Table!$D$1:$D$2</definedName>
     <definedName name="semaine">Table!$A$1:$B$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$BP$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$BQ$70</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
   <si>
     <t>Projet</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>3.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
   </si>
   <si>
     <t>4.1</t>
@@ -185,18 +182,6 @@
     <t>SDA</t>
   </si>
   <si>
-    <t>Rédaction des spécifications techniques generales</t>
-  </si>
-  <si>
-    <t>Rédaction des spécifications techniques detaillées</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
     <t>Clôture</t>
   </si>
   <si>
@@ -215,18 +200,6 @@
     <t>2.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Développement de l'interface web </t>
-  </si>
-  <si>
-    <t>Création de la base de données</t>
-  </si>
-  <si>
-    <t>Développement du script de crawler</t>
-  </si>
-  <si>
-    <t>Développement du script pour générer les résultats</t>
-  </si>
-  <si>
     <t>Cahier de recette</t>
   </si>
   <si>
@@ -237,6 +210,114 @@
   </si>
   <si>
     <t>Retour sur expérience</t>
+  </si>
+  <si>
+    <t>Développement de l'IHM d'accueil</t>
+  </si>
+  <si>
+    <t>Développement de l'IHM documentation utilisateur</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>Développement de l'IHM à propos</t>
+  </si>
+  <si>
+    <t>Développement de l'IHM "en attente de résultat"</t>
+  </si>
+  <si>
+    <t>moyen</t>
+  </si>
+  <si>
+    <t>Développement de l'IHM affichage des résultats</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Complexité</t>
+  </si>
+  <si>
+    <t>Développement site web</t>
+  </si>
+  <si>
+    <t>Développement du script crawler</t>
+  </si>
+  <si>
+    <t>3S, 1M, 1C</t>
+  </si>
+  <si>
+    <t>Récupération de la page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrage des mots </t>
+  </si>
+  <si>
+    <t>Comptage des mots</t>
+  </si>
+  <si>
+    <t>Définition du thème</t>
+  </si>
+  <si>
+    <t>Stockage des résultats</t>
+  </si>
+  <si>
+    <t>Récupération des URL associées</t>
+  </si>
+  <si>
+    <t>Itération de la recherche</t>
+  </si>
+  <si>
+    <t>Développement du script de crawling des pages associées</t>
+  </si>
+  <si>
+    <t>Gestion du cache</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>Gestion du résultat</t>
+  </si>
+  <si>
+    <t>Conception du format de données</t>
+  </si>
+  <si>
+    <t>Stockage des données en BDD</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>MBA/DPI</t>
+  </si>
+  <si>
+    <t>DPI/SDA</t>
+  </si>
+  <si>
+    <t>TOUS</t>
+  </si>
+  <si>
+    <t>Conception de la base de données</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>IHM menu choix crawling ou affichage resultats</t>
+  </si>
+  <si>
+    <t>Règle</t>
+  </si>
+  <si>
+    <t>1S,2M</t>
+  </si>
+  <si>
+    <t>2S,1M</t>
   </si>
 </sst>
 </file>
@@ -246,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,18 +421,11 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +447,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,15 +560,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -587,18 +697,29 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -639,28 +760,476 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="36">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -854,7 +1423,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$H$1" horiz="1" inc="5" max="180" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$I$1" horiz="1" inc="5" max="180" page="10" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,13 +1432,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>67</xdr:col>
+          <xdr:col>68</xdr:col>
           <xdr:colOff>177800</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>165100</xdr:rowOff>
@@ -1192,707 +1761,712 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET103"/>
+  <dimension ref="A1:EU114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CQ41" sqref="CQ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="9" style="14" hidden="1" customWidth="1"/>
-    <col min="9" max="68" width="2.5" style="1" customWidth="1"/>
-    <col min="69" max="121" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="16384" width="11" style="1"/>
+    <col min="2" max="2" width="7.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="69" width="2.5" style="1" customWidth="1"/>
+    <col min="70" max="122" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" ht="14">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:151" ht="14">
+      <c r="A1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="H1" s="1">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="I1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:150" ht="12">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:151" ht="12">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="H2" s="3">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="I2" s="3">
         <f ca="1">TODAY()</f>
-        <v>42487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:150" ht="14.25" customHeight="1">
-      <c r="A3" s="55" t="s">
+        <v>42488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:151" ht="14.25" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:150" ht="10.5" customHeight="1">
-      <c r="A4" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="28">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:151" ht="10.5" customHeight="1">
+      <c r="A4" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="28">
         <f ca="1">TODAY()</f>
-        <v>42487</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="33"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:150" ht="12">
-      <c r="A5" s="55" t="s">
+        <v>42488</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="33"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:151" ht="12">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="34"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:150" ht="12">
-      <c r="A6" s="55" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="34"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:151" ht="12">
+      <c r="A6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="30">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="30">
         <v>42480</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="34"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:150" s="4" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="5">
-        <f>D6+H1</f>
+      <c r="F6" s="25"/>
+      <c r="G6" s="34"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:151" s="4" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="5">
+        <f>E6+I1</f>
         <v>42480</v>
       </c>
-      <c r="J7" s="6">
-        <f>I7+1</f>
+      <c r="K7" s="6">
+        <f>J7+1</f>
         <v>42481</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" ref="K7:AY7" si="0">J7+1</f>
+      <c r="L7" s="6">
+        <f t="shared" ref="L7:AZ7" si="0">K7+1</f>
         <v>42482</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <f t="shared" si="0"/>
         <v>42483</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <f t="shared" si="0"/>
         <v>42484</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <f t="shared" si="0"/>
         <v>42485</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <f t="shared" si="0"/>
         <v>42486</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <f t="shared" si="0"/>
         <v>42487</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <f t="shared" si="0"/>
         <v>42488</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <f t="shared" si="0"/>
         <v>42489</v>
       </c>
-      <c r="S7" s="6">
+      <c r="T7" s="6">
         <f t="shared" si="0"/>
         <v>42490</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="6">
         <f t="shared" si="0"/>
         <v>42491</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <f t="shared" si="0"/>
         <v>42492</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <f t="shared" si="0"/>
         <v>42493</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="6">
         <f t="shared" si="0"/>
         <v>42494</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Y7" s="6">
         <f t="shared" si="0"/>
         <v>42495</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Z7" s="6">
         <f t="shared" si="0"/>
         <v>42496</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AA7" s="6">
         <f t="shared" si="0"/>
         <v>42497</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AB7" s="6">
         <f t="shared" si="0"/>
         <v>42498</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AC7" s="6">
         <f t="shared" si="0"/>
         <v>42499</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AD7" s="6">
         <f t="shared" si="0"/>
         <v>42500</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="0"/>
         <v>42501</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AF7" s="6">
         <f t="shared" si="0"/>
         <v>42502</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AG7" s="6">
         <f t="shared" si="0"/>
         <v>42503</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AH7" s="6">
         <f t="shared" si="0"/>
         <v>42504</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AI7" s="6">
         <f t="shared" si="0"/>
         <v>42505</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AJ7" s="6">
         <f t="shared" si="0"/>
         <v>42506</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AK7" s="6">
         <f t="shared" si="0"/>
         <v>42507</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AL7" s="6">
         <f t="shared" si="0"/>
         <v>42508</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AM7" s="6">
         <f t="shared" si="0"/>
         <v>42509</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AN7" s="6">
         <f t="shared" si="0"/>
         <v>42510</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AO7" s="6">
         <f t="shared" si="0"/>
         <v>42511</v>
       </c>
-      <c r="AO7" s="6">
+      <c r="AP7" s="6">
         <f t="shared" si="0"/>
         <v>42512</v>
       </c>
-      <c r="AP7" s="6">
+      <c r="AQ7" s="6">
         <f t="shared" si="0"/>
         <v>42513</v>
       </c>
-      <c r="AQ7" s="6">
+      <c r="AR7" s="6">
         <f t="shared" si="0"/>
         <v>42514</v>
       </c>
-      <c r="AR7" s="6">
+      <c r="AS7" s="6">
         <f t="shared" si="0"/>
         <v>42515</v>
       </c>
-      <c r="AS7" s="6">
+      <c r="AT7" s="6">
         <f t="shared" si="0"/>
         <v>42516</v>
       </c>
-      <c r="AT7" s="6">
+      <c r="AU7" s="6">
         <f t="shared" si="0"/>
         <v>42517</v>
       </c>
-      <c r="AU7" s="6">
+      <c r="AV7" s="6">
         <f t="shared" si="0"/>
         <v>42518</v>
       </c>
-      <c r="AV7" s="6">
+      <c r="AW7" s="6">
         <f t="shared" si="0"/>
         <v>42519</v>
       </c>
-      <c r="AW7" s="6">
+      <c r="AX7" s="6">
         <f t="shared" si="0"/>
         <v>42520</v>
       </c>
-      <c r="AX7" s="6">
+      <c r="AY7" s="6">
         <f t="shared" si="0"/>
         <v>42521</v>
       </c>
-      <c r="AY7" s="6">
+      <c r="AZ7" s="6">
         <f t="shared" si="0"/>
         <v>42522</v>
       </c>
-      <c r="AZ7" s="6">
-        <f t="shared" ref="AZ7" si="1">AY7+1</f>
+      <c r="BA7" s="6">
+        <f t="shared" ref="BA7" si="1">AZ7+1</f>
         <v>42523</v>
       </c>
-      <c r="BA7" s="6">
-        <f t="shared" ref="BA7" si="2">AZ7+1</f>
+      <c r="BB7" s="6">
+        <f t="shared" ref="BB7" si="2">BA7+1</f>
         <v>42524</v>
       </c>
-      <c r="BB7" s="6">
-        <f t="shared" ref="BB7" si="3">BA7+1</f>
+      <c r="BC7" s="6">
+        <f t="shared" ref="BC7" si="3">BB7+1</f>
         <v>42525</v>
       </c>
-      <c r="BC7" s="6">
-        <f t="shared" ref="BC7" si="4">BB7+1</f>
+      <c r="BD7" s="6">
+        <f t="shared" ref="BD7" si="4">BC7+1</f>
         <v>42526</v>
       </c>
-      <c r="BD7" s="6">
-        <f t="shared" ref="BD7" si="5">BC7+1</f>
+      <c r="BE7" s="6">
+        <f t="shared" ref="BE7" si="5">BD7+1</f>
         <v>42527</v>
       </c>
-      <c r="BE7" s="6">
-        <f t="shared" ref="BE7" si="6">BD7+1</f>
+      <c r="BF7" s="6">
+        <f t="shared" ref="BF7" si="6">BE7+1</f>
         <v>42528</v>
       </c>
-      <c r="BF7" s="6">
-        <f t="shared" ref="BF7" si="7">BE7+1</f>
+      <c r="BG7" s="6">
+        <f t="shared" ref="BG7" si="7">BF7+1</f>
         <v>42529</v>
       </c>
-      <c r="BG7" s="6">
-        <f t="shared" ref="BG7" si="8">BF7+1</f>
+      <c r="BH7" s="6">
+        <f t="shared" ref="BH7" si="8">BG7+1</f>
         <v>42530</v>
       </c>
-      <c r="BH7" s="6">
-        <f t="shared" ref="BH7" si="9">BG7+1</f>
+      <c r="BI7" s="6">
+        <f t="shared" ref="BI7" si="9">BH7+1</f>
         <v>42531</v>
       </c>
-      <c r="BI7" s="6">
-        <f t="shared" ref="BI7" si="10">BH7+1</f>
+      <c r="BJ7" s="6">
+        <f t="shared" ref="BJ7" si="10">BI7+1</f>
         <v>42532</v>
       </c>
-      <c r="BJ7" s="6">
-        <f t="shared" ref="BJ7" si="11">BI7+1</f>
+      <c r="BK7" s="6">
+        <f t="shared" ref="BK7" si="11">BJ7+1</f>
         <v>42533</v>
       </c>
-      <c r="BK7" s="6">
-        <f t="shared" ref="BK7" si="12">BJ7+1</f>
+      <c r="BL7" s="6">
+        <f t="shared" ref="BL7" si="12">BK7+1</f>
         <v>42534</v>
       </c>
-      <c r="BL7" s="6">
-        <f t="shared" ref="BL7" si="13">BK7+1</f>
+      <c r="BM7" s="6">
+        <f t="shared" ref="BM7" si="13">BL7+1</f>
         <v>42535</v>
       </c>
-      <c r="BM7" s="6">
-        <f t="shared" ref="BM7" si="14">BL7+1</f>
+      <c r="BN7" s="6">
+        <f t="shared" ref="BN7" si="14">BM7+1</f>
         <v>42536</v>
       </c>
-      <c r="BN7" s="6">
-        <f t="shared" ref="BN7" si="15">BM7+1</f>
+      <c r="BO7" s="6">
+        <f t="shared" ref="BO7" si="15">BN7+1</f>
         <v>42537</v>
       </c>
-      <c r="BO7" s="6">
-        <f t="shared" ref="BO7" si="16">BN7+1</f>
+      <c r="BP7" s="6">
+        <f t="shared" ref="BP7" si="16">BO7+1</f>
         <v>42538</v>
       </c>
-      <c r="BP7" s="6">
-        <f t="shared" ref="BP7" si="17">BO7+1</f>
+      <c r="BQ7" s="6">
+        <f t="shared" ref="BQ7" si="17">BP7+1</f>
         <v>42539</v>
       </c>
-      <c r="BQ7" s="6">
-        <f t="shared" ref="BQ7" si="18">BP7+1</f>
+      <c r="BR7" s="6">
+        <f t="shared" ref="BR7" si="18">BQ7+1</f>
         <v>42540</v>
       </c>
-      <c r="BR7" s="6">
-        <f t="shared" ref="BR7" si="19">BQ7+1</f>
+      <c r="BS7" s="6">
+        <f t="shared" ref="BS7" si="19">BR7+1</f>
         <v>42541</v>
       </c>
-      <c r="BS7" s="6">
-        <f t="shared" ref="BS7" si="20">BR7+1</f>
+      <c r="BT7" s="6">
+        <f t="shared" ref="BT7" si="20">BS7+1</f>
         <v>42542</v>
       </c>
-      <c r="BT7" s="6">
-        <f t="shared" ref="BT7" si="21">BS7+1</f>
+      <c r="BU7" s="6">
+        <f t="shared" ref="BU7" si="21">BT7+1</f>
         <v>42543</v>
       </c>
-      <c r="BU7" s="6">
-        <f t="shared" ref="BU7" si="22">BT7+1</f>
+      <c r="BV7" s="6">
+        <f t="shared" ref="BV7" si="22">BU7+1</f>
         <v>42544</v>
       </c>
-      <c r="BV7" s="6">
-        <f t="shared" ref="BV7" si="23">BU7+1</f>
+      <c r="BW7" s="6">
+        <f t="shared" ref="BW7" si="23">BV7+1</f>
         <v>42545</v>
       </c>
-      <c r="BW7" s="6">
-        <f t="shared" ref="BW7" si="24">BV7+1</f>
+      <c r="BX7" s="6">
+        <f t="shared" ref="BX7" si="24">BW7+1</f>
         <v>42546</v>
       </c>
-      <c r="BX7" s="6">
-        <f t="shared" ref="BX7" si="25">BW7+1</f>
+      <c r="BY7" s="6">
+        <f t="shared" ref="BY7" si="25">BX7+1</f>
         <v>42547</v>
       </c>
-      <c r="BY7" s="6">
-        <f t="shared" ref="BY7" si="26">BX7+1</f>
+      <c r="BZ7" s="6">
+        <f t="shared" ref="BZ7" si="26">BY7+1</f>
         <v>42548</v>
       </c>
-      <c r="BZ7" s="6">
-        <f t="shared" ref="BZ7" si="27">BY7+1</f>
+      <c r="CA7" s="6">
+        <f t="shared" ref="CA7" si="27">BZ7+1</f>
         <v>42549</v>
       </c>
-      <c r="CA7" s="6">
-        <f t="shared" ref="CA7" si="28">BZ7+1</f>
+      <c r="CB7" s="6">
+        <f t="shared" ref="CB7" si="28">CA7+1</f>
         <v>42550</v>
       </c>
-      <c r="CB7" s="6">
-        <f t="shared" ref="CB7" si="29">CA7+1</f>
+      <c r="CC7" s="6">
+        <f t="shared" ref="CC7" si="29">CB7+1</f>
         <v>42551</v>
       </c>
-      <c r="CC7" s="6">
-        <f t="shared" ref="CC7" si="30">CB7+1</f>
+      <c r="CD7" s="6">
+        <f t="shared" ref="CD7" si="30">CC7+1</f>
         <v>42552</v>
       </c>
-      <c r="CD7" s="6">
-        <f t="shared" ref="CD7" si="31">CC7+1</f>
+      <c r="CE7" s="6">
+        <f t="shared" ref="CE7" si="31">CD7+1</f>
         <v>42553</v>
       </c>
-      <c r="CE7" s="6">
-        <f t="shared" ref="CE7" si="32">CD7+1</f>
+      <c r="CF7" s="6">
+        <f t="shared" ref="CF7" si="32">CE7+1</f>
         <v>42554</v>
       </c>
-      <c r="CF7" s="6">
-        <f t="shared" ref="CF7" si="33">CE7+1</f>
+      <c r="CG7" s="6">
+        <f t="shared" ref="CG7" si="33">CF7+1</f>
         <v>42555</v>
       </c>
-      <c r="CG7" s="6">
-        <f t="shared" ref="CG7" si="34">CF7+1</f>
+      <c r="CH7" s="6">
+        <f t="shared" ref="CH7" si="34">CG7+1</f>
         <v>42556</v>
       </c>
-      <c r="CH7" s="6">
-        <f t="shared" ref="CH7" si="35">CG7+1</f>
+      <c r="CI7" s="6">
+        <f t="shared" ref="CI7" si="35">CH7+1</f>
         <v>42557</v>
       </c>
-      <c r="CI7" s="6">
-        <f t="shared" ref="CI7" si="36">CH7+1</f>
+      <c r="CJ7" s="6">
+        <f t="shared" ref="CJ7" si="36">CI7+1</f>
         <v>42558</v>
       </c>
-      <c r="CJ7" s="6">
-        <f t="shared" ref="CJ7" si="37">CI7+1</f>
+      <c r="CK7" s="6">
+        <f t="shared" ref="CK7" si="37">CJ7+1</f>
         <v>42559</v>
       </c>
-      <c r="CK7" s="6">
-        <f t="shared" ref="CK7" si="38">CJ7+1</f>
+      <c r="CL7" s="6">
+        <f t="shared" ref="CL7" si="38">CK7+1</f>
         <v>42560</v>
       </c>
-      <c r="CL7" s="6">
-        <f t="shared" ref="CL7" si="39">CK7+1</f>
+      <c r="CM7" s="6">
+        <f t="shared" ref="CM7" si="39">CL7+1</f>
         <v>42561</v>
       </c>
-      <c r="CM7" s="6">
-        <f t="shared" ref="CM7" si="40">CL7+1</f>
+      <c r="CN7" s="6">
+        <f t="shared" ref="CN7" si="40">CM7+1</f>
         <v>42562</v>
       </c>
-      <c r="CN7" s="6">
-        <f t="shared" ref="CN7" si="41">CM7+1</f>
+      <c r="CO7" s="6">
+        <f t="shared" ref="CO7" si="41">CN7+1</f>
         <v>42563</v>
       </c>
-      <c r="CO7" s="6">
-        <f t="shared" ref="CO7" si="42">CN7+1</f>
+      <c r="CP7" s="6">
+        <f t="shared" ref="CP7" si="42">CO7+1</f>
         <v>42564</v>
       </c>
-      <c r="CP7" s="6">
-        <f t="shared" ref="CP7" si="43">CO7+1</f>
+      <c r="CQ7" s="6">
+        <f t="shared" ref="CQ7" si="43">CP7+1</f>
         <v>42565</v>
       </c>
-      <c r="CQ7" s="6">
-        <f t="shared" ref="CQ7" si="44">CP7+1</f>
+      <c r="CR7" s="6">
+        <f t="shared" ref="CR7" si="44">CQ7+1</f>
         <v>42566</v>
       </c>
-      <c r="CR7" s="6">
-        <f t="shared" ref="CR7" si="45">CQ7+1</f>
+      <c r="CS7" s="6">
+        <f t="shared" ref="CS7" si="45">CR7+1</f>
         <v>42567</v>
       </c>
-      <c r="CS7" s="6">
-        <f t="shared" ref="CS7" si="46">CR7+1</f>
+      <c r="CT7" s="6">
+        <f t="shared" ref="CT7" si="46">CS7+1</f>
         <v>42568</v>
       </c>
-      <c r="CT7" s="6">
-        <f t="shared" ref="CT7" si="47">CS7+1</f>
+      <c r="CU7" s="6">
+        <f t="shared" ref="CU7" si="47">CT7+1</f>
         <v>42569</v>
       </c>
-      <c r="CU7" s="6">
-        <f t="shared" ref="CU7" si="48">CT7+1</f>
+      <c r="CV7" s="6">
+        <f t="shared" ref="CV7" si="48">CU7+1</f>
         <v>42570</v>
       </c>
-      <c r="CV7" s="6">
-        <f t="shared" ref="CV7" si="49">CU7+1</f>
+      <c r="CW7" s="6">
+        <f t="shared" ref="CW7" si="49">CV7+1</f>
         <v>42571</v>
       </c>
-      <c r="CW7" s="6">
-        <f t="shared" ref="CW7" si="50">CV7+1</f>
+      <c r="CX7" s="6">
+        <f t="shared" ref="CX7" si="50">CW7+1</f>
         <v>42572</v>
       </c>
-      <c r="CX7" s="6">
-        <f t="shared" ref="CX7" si="51">CW7+1</f>
+      <c r="CY7" s="6">
+        <f t="shared" ref="CY7" si="51">CX7+1</f>
         <v>42573</v>
       </c>
-      <c r="CY7" s="6">
-        <f t="shared" ref="CY7" si="52">CX7+1</f>
+      <c r="CZ7" s="6">
+        <f t="shared" ref="CZ7" si="52">CY7+1</f>
         <v>42574</v>
       </c>
-      <c r="CZ7" s="6">
-        <f t="shared" ref="CZ7" si="53">CY7+1</f>
+      <c r="DA7" s="6">
+        <f t="shared" ref="DA7" si="53">CZ7+1</f>
         <v>42575</v>
       </c>
-      <c r="DA7" s="6">
-        <f t="shared" ref="DA7" si="54">CZ7+1</f>
+      <c r="DB7" s="6">
+        <f t="shared" ref="DB7" si="54">DA7+1</f>
         <v>42576</v>
       </c>
-      <c r="DB7" s="6">
-        <f t="shared" ref="DB7" si="55">DA7+1</f>
+      <c r="DC7" s="6">
+        <f t="shared" ref="DC7" si="55">DB7+1</f>
         <v>42577</v>
       </c>
-      <c r="DC7" s="6">
-        <f t="shared" ref="DC7" si="56">DB7+1</f>
+      <c r="DD7" s="6">
+        <f t="shared" ref="DD7" si="56">DC7+1</f>
         <v>42578</v>
       </c>
-      <c r="DD7" s="6">
-        <f t="shared" ref="DD7" si="57">DC7+1</f>
+      <c r="DE7" s="6">
+        <f t="shared" ref="DE7" si="57">DD7+1</f>
         <v>42579</v>
       </c>
-      <c r="DE7" s="6">
-        <f t="shared" ref="DE7" si="58">DD7+1</f>
+      <c r="DF7" s="6">
+        <f t="shared" ref="DF7" si="58">DE7+1</f>
         <v>42580</v>
       </c>
-      <c r="DF7" s="6">
-        <f t="shared" ref="DF7" si="59">DE7+1</f>
+      <c r="DG7" s="6">
+        <f t="shared" ref="DG7" si="59">DF7+1</f>
         <v>42581</v>
       </c>
-      <c r="DG7" s="6">
-        <f t="shared" ref="DG7" si="60">DF7+1</f>
+      <c r="DH7" s="6">
+        <f t="shared" ref="DH7" si="60">DG7+1</f>
         <v>42582</v>
       </c>
-      <c r="DH7" s="6">
-        <f t="shared" ref="DH7" si="61">DG7+1</f>
+      <c r="DI7" s="6">
+        <f t="shared" ref="DI7" si="61">DH7+1</f>
         <v>42583</v>
       </c>
-      <c r="DI7" s="6">
-        <f t="shared" ref="DI7" si="62">DH7+1</f>
+      <c r="DJ7" s="6">
+        <f t="shared" ref="DJ7" si="62">DI7+1</f>
         <v>42584</v>
       </c>
-      <c r="DJ7" s="6">
-        <f t="shared" ref="DJ7" si="63">DI7+1</f>
+      <c r="DK7" s="6">
+        <f t="shared" ref="DK7" si="63">DJ7+1</f>
         <v>42585</v>
       </c>
-      <c r="DK7" s="6">
-        <f t="shared" ref="DK7" si="64">DJ7+1</f>
+      <c r="DL7" s="6">
+        <f t="shared" ref="DL7" si="64">DK7+1</f>
         <v>42586</v>
       </c>
-      <c r="DL7" s="6">
-        <f t="shared" ref="DL7" si="65">DK7+1</f>
+      <c r="DM7" s="6">
+        <f t="shared" ref="DM7" si="65">DL7+1</f>
         <v>42587</v>
       </c>
-      <c r="DM7" s="6">
-        <f t="shared" ref="DM7" si="66">DL7+1</f>
+      <c r="DN7" s="6">
+        <f t="shared" ref="DN7" si="66">DM7+1</f>
         <v>42588</v>
       </c>
-      <c r="DN7" s="6">
-        <f t="shared" ref="DN7" si="67">DM7+1</f>
+      <c r="DO7" s="6">
+        <f t="shared" ref="DO7" si="67">DN7+1</f>
         <v>42589</v>
       </c>
-      <c r="DO7" s="6">
-        <f t="shared" ref="DO7" si="68">DN7+1</f>
+      <c r="DP7" s="6">
+        <f t="shared" ref="DP7" si="68">DO7+1</f>
         <v>42590</v>
       </c>
-      <c r="DP7" s="6">
-        <f t="shared" ref="DP7" si="69">DO7+1</f>
+      <c r="DQ7" s="6">
+        <f t="shared" ref="DQ7" si="69">DP7+1</f>
         <v>42591</v>
       </c>
-      <c r="DQ7" s="6">
-        <f t="shared" ref="DQ7" si="70">DP7+1</f>
+      <c r="DR7" s="6">
+        <f t="shared" ref="DR7" si="70">DQ7+1</f>
         <v>42592</v>
       </c>
-      <c r="DR7" s="6">
-        <f t="shared" ref="DR7" si="71">DQ7+1</f>
+      <c r="DS7" s="6">
+        <f t="shared" ref="DS7" si="71">DR7+1</f>
         <v>42593</v>
       </c>
-      <c r="DS7" s="6">
-        <f t="shared" ref="DS7" si="72">DR7+1</f>
+      <c r="DT7" s="6">
+        <f t="shared" ref="DT7" si="72">DS7+1</f>
         <v>42594</v>
       </c>
-      <c r="DT7" s="6">
-        <f t="shared" ref="DT7" si="73">DS7+1</f>
+      <c r="DU7" s="6">
+        <f t="shared" ref="DU7" si="73">DT7+1</f>
         <v>42595</v>
       </c>
-      <c r="DU7" s="6">
-        <f t="shared" ref="DU7" si="74">DT7+1</f>
+      <c r="DV7" s="6">
+        <f t="shared" ref="DV7" si="74">DU7+1</f>
         <v>42596</v>
       </c>
-      <c r="DV7" s="6">
-        <f t="shared" ref="DV7" si="75">DU7+1</f>
+      <c r="DW7" s="6">
+        <f t="shared" ref="DW7" si="75">DV7+1</f>
         <v>42597</v>
       </c>
-      <c r="DW7" s="6">
-        <f t="shared" ref="DW7" si="76">DV7+1</f>
+      <c r="DX7" s="6">
+        <f t="shared" ref="DX7" si="76">DW7+1</f>
         <v>42598</v>
       </c>
-      <c r="DX7" s="6">
-        <f t="shared" ref="DX7" si="77">DW7+1</f>
+      <c r="DY7" s="6">
+        <f t="shared" ref="DY7" si="77">DX7+1</f>
         <v>42599</v>
       </c>
-      <c r="DY7" s="6">
-        <f t="shared" ref="DY7" si="78">DX7+1</f>
+      <c r="DZ7" s="6">
+        <f t="shared" ref="DZ7" si="78">DY7+1</f>
         <v>42600</v>
       </c>
-      <c r="DZ7" s="6">
-        <f t="shared" ref="DZ7" si="79">DY7+1</f>
+      <c r="EA7" s="6">
+        <f t="shared" ref="EA7" si="79">DZ7+1</f>
         <v>42601</v>
       </c>
-      <c r="EA7" s="6">
-        <f t="shared" ref="EA7" si="80">DZ7+1</f>
+      <c r="EB7" s="6">
+        <f t="shared" ref="EB7" si="80">EA7+1</f>
         <v>42602</v>
       </c>
-      <c r="EB7" s="6">
-        <f t="shared" ref="EB7" si="81">EA7+1</f>
+      <c r="EC7" s="6">
+        <f t="shared" ref="EC7" si="81">EB7+1</f>
         <v>42603</v>
       </c>
-      <c r="EC7" s="6">
-        <f t="shared" ref="EC7" si="82">EB7+1</f>
+      <c r="ED7" s="6">
+        <f t="shared" ref="ED7" si="82">EC7+1</f>
         <v>42604</v>
       </c>
-      <c r="ED7" s="6">
-        <f t="shared" ref="ED7" si="83">EC7+1</f>
+      <c r="EE7" s="6">
+        <f t="shared" ref="EE7" si="83">ED7+1</f>
         <v>42605</v>
       </c>
-      <c r="EE7" s="6">
-        <f t="shared" ref="EE7" si="84">ED7+1</f>
+      <c r="EF7" s="6">
+        <f t="shared" ref="EF7" si="84">EE7+1</f>
         <v>42606</v>
       </c>
-      <c r="EF7" s="6">
-        <f t="shared" ref="EF7" si="85">EE7+1</f>
+      <c r="EG7" s="6">
+        <f t="shared" ref="EG7" si="85">EF7+1</f>
         <v>42607</v>
       </c>
-      <c r="EG7" s="6">
-        <f t="shared" ref="EG7" si="86">EF7+1</f>
+      <c r="EH7" s="6">
+        <f t="shared" ref="EH7" si="86">EG7+1</f>
         <v>42608</v>
       </c>
-      <c r="EH7" s="6">
-        <f t="shared" ref="EH7" si="87">EG7+1</f>
+      <c r="EI7" s="6">
+        <f t="shared" ref="EI7" si="87">EH7+1</f>
         <v>42609</v>
       </c>
-      <c r="EI7" s="6">
-        <f t="shared" ref="EI7" si="88">EH7+1</f>
+      <c r="EJ7" s="6">
+        <f t="shared" ref="EJ7" si="88">EI7+1</f>
         <v>42610</v>
       </c>
-      <c r="EJ7" s="6">
-        <f t="shared" ref="EJ7" si="89">EI7+1</f>
+      <c r="EK7" s="6">
+        <f t="shared" ref="EK7" si="89">EJ7+1</f>
         <v>42611</v>
       </c>
-      <c r="EK7" s="6">
-        <f t="shared" ref="EK7" si="90">EJ7+1</f>
+      <c r="EL7" s="6">
+        <f t="shared" ref="EL7" si="90">EK7+1</f>
         <v>42612</v>
       </c>
-      <c r="EL7" s="6">
-        <f t="shared" ref="EL7" si="91">EK7+1</f>
+      <c r="EM7" s="6">
+        <f t="shared" ref="EM7" si="91">EL7+1</f>
         <v>42613</v>
       </c>
-      <c r="EM7" s="6">
-        <f t="shared" ref="EM7" si="92">EL7+1</f>
+      <c r="EN7" s="6">
+        <f t="shared" ref="EN7" si="92">EM7+1</f>
         <v>42614</v>
       </c>
-      <c r="EN7" s="6">
-        <f t="shared" ref="EN7" si="93">EM7+1</f>
+      <c r="EO7" s="6">
+        <f t="shared" ref="EO7" si="93">EN7+1</f>
         <v>42615</v>
       </c>
-      <c r="EO7" s="6">
-        <f t="shared" ref="EO7" si="94">EN7+1</f>
+      <c r="EP7" s="6">
+        <f t="shared" ref="EP7" si="94">EO7+1</f>
         <v>42616</v>
       </c>
-      <c r="EP7" s="6">
-        <f t="shared" ref="EP7" si="95">EO7+1</f>
+      <c r="EQ7" s="6">
+        <f t="shared" ref="EQ7" si="95">EP7+1</f>
         <v>42617</v>
       </c>
-      <c r="EQ7" s="6">
-        <f t="shared" ref="EQ7" si="96">EP7+1</f>
+      <c r="ER7" s="6">
+        <f t="shared" ref="ER7" si="96">EQ7+1</f>
         <v>42618</v>
       </c>
-      <c r="ER7" s="6">
-        <f t="shared" ref="ER7" si="97">EQ7+1</f>
+      <c r="ES7" s="6">
+        <f t="shared" ref="ES7" si="97">ER7+1</f>
         <v>42619</v>
       </c>
-      <c r="ES7" s="6">
-        <f t="shared" ref="ES7" si="98">ER7+1</f>
+      <c r="ET7" s="6">
+        <f t="shared" ref="ET7" si="98">ES7+1</f>
         <v>42620</v>
       </c>
-      <c r="ET7" s="6">
-        <f t="shared" ref="ET7" si="99">ES7+1</f>
+      <c r="EU7" s="6">
+        <f t="shared" ref="EU7" si="99">ET7+1</f>
         <v>42621</v>
       </c>
     </row>
-    <row r="8" spans="1:150" s="7" customFormat="1" ht="28.5" customHeight="1">
+    <row r="8" spans="1:151" s="7" customFormat="1" ht="28.5" customHeight="1">
       <c r="B8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="9" t="str">
-        <f>"S "&amp;WEEKNUM(I7,2)</f>
+      <c r="C8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="9" t="str">
+        <f>"S "&amp;WEEKNUM(J7,2)</f>
         <v>S 17</v>
       </c>
-      <c r="J8" s="9" t="str">
-        <f t="shared" ref="J8" si="100">IF(J9="L","S "&amp;WEEKNUM(J7,2),"")</f>
-        <v/>
-      </c>
       <c r="K8" s="9" t="str">
-        <f t="shared" ref="K8:BV8" si="101">IF(K9="L","S "&amp;WEEKNUM(K7,2),"")</f>
+        <f t="shared" ref="K8" si="100">IF(K9="L","S "&amp;WEEKNUM(K7,2),"")</f>
         <v/>
       </c>
       <c r="L8" s="9" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="L8:BW8" si="101">IF(L9="L","S "&amp;WEEKNUM(L7,2),"")</f>
         <v/>
       </c>
       <c r="M8" s="9" t="str">
@@ -1901,12 +2475,12 @@
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="O8" s="9" t="str">
+        <f t="shared" si="101"/>
         <v>S 18</v>
       </c>
-      <c r="O8" s="9" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
       <c r="P8" s="9" t="str">
         <f t="shared" si="101"/>
         <v/>
@@ -1929,12 +2503,12 @@
       </c>
       <c r="U8" s="9" t="str">
         <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="V8" s="9" t="str">
+        <f t="shared" si="101"/>
         <v>S 19</v>
       </c>
-      <c r="V8" s="9" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
       <c r="W8" s="9" t="str">
         <f t="shared" si="101"/>
         <v/>
@@ -1957,12 +2531,12 @@
       </c>
       <c r="AB8" s="9" t="str">
         <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AC8" s="9" t="str">
+        <f t="shared" si="101"/>
         <v>S 20</v>
       </c>
-      <c r="AC8" s="9" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
       <c r="AD8" s="9" t="str">
         <f t="shared" si="101"/>
         <v/>
@@ -1985,12 +2559,12 @@
       </c>
       <c r="AI8" s="9" t="str">
         <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AJ8" s="9" t="str">
+        <f t="shared" si="101"/>
         <v>S 21</v>
       </c>
-      <c r="AJ8" s="9" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
       <c r="AK8" s="9" t="str">
         <f t="shared" si="101"/>
         <v/>
@@ -2013,12 +2587,12 @@
       </c>
       <c r="AP8" s="9" t="str">
         <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AQ8" s="9" t="str">
+        <f t="shared" si="101"/>
         <v>S 22</v>
       </c>
-      <c r="AQ8" s="9" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
       <c r="AR8" s="9" t="str">
         <f t="shared" si="101"/>
         <v/>
@@ -2041,12 +2615,12 @@
       </c>
       <c r="AW8" s="9" t="str">
         <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AX8" s="9" t="str">
+        <f t="shared" si="101"/>
         <v>S 23</v>
       </c>
-      <c r="AX8" s="9" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
       <c r="AY8" s="9" t="str">
         <f t="shared" si="101"/>
         <v/>
@@ -2069,12 +2643,12 @@
       </c>
       <c r="BD8" s="9" t="str">
         <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="BE8" s="9" t="str">
+        <f t="shared" si="101"/>
         <v>S 24</v>
       </c>
-      <c r="BE8" s="9" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
       <c r="BF8" s="9" t="str">
         <f t="shared" si="101"/>
         <v/>
@@ -2097,12 +2671,12 @@
       </c>
       <c r="BK8" s="9" t="str">
         <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="BL8" s="9" t="str">
+        <f t="shared" si="101"/>
         <v>S 25</v>
       </c>
-      <c r="BL8" s="9" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
       <c r="BM8" s="9" t="str">
         <f t="shared" si="101"/>
         <v/>
@@ -2125,12 +2699,12 @@
       </c>
       <c r="BR8" s="9" t="str">
         <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="BS8" s="9" t="str">
+        <f t="shared" si="101"/>
         <v>S 26</v>
       </c>
-      <c r="BS8" s="9" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
       <c r="BT8" s="9" t="str">
         <f t="shared" si="101"/>
         <v/>
@@ -2144,20 +2718,20 @@
         <v/>
       </c>
       <c r="BW8" s="9" t="str">
-        <f t="shared" ref="BW8:DQ8" si="102">IF(BW9="L","S "&amp;WEEKNUM(BW7,2),"")</f>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="BX8" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="BX8:DR8" si="102">IF(BX9="L","S "&amp;WEEKNUM(BX7,2),"")</f>
         <v/>
       </c>
       <c r="BY8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 27</v>
+        <v/>
       </c>
       <c r="BZ8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 27</v>
       </c>
       <c r="CA8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2181,11 +2755,11 @@
       </c>
       <c r="CF8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 28</v>
+        <v/>
       </c>
       <c r="CG8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 28</v>
       </c>
       <c r="CH8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2209,11 +2783,11 @@
       </c>
       <c r="CM8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 29</v>
+        <v/>
       </c>
       <c r="CN8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 29</v>
       </c>
       <c r="CO8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2237,11 +2811,11 @@
       </c>
       <c r="CT8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 30</v>
+        <v/>
       </c>
       <c r="CU8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 30</v>
       </c>
       <c r="CV8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2265,11 +2839,11 @@
       </c>
       <c r="DA8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 31</v>
+        <v/>
       </c>
       <c r="DB8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 31</v>
       </c>
       <c r="DC8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2293,11 +2867,11 @@
       </c>
       <c r="DH8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 32</v>
+        <v/>
       </c>
       <c r="DI8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 32</v>
       </c>
       <c r="DJ8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2321,315 +2895,316 @@
       </c>
       <c r="DO8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 33</v>
+        <v/>
       </c>
       <c r="DP8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 33</v>
       </c>
       <c r="DQ8" s="9" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:150" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="DR8" s="9" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:151" s="2" customFormat="1" ht="13" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="E9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="F9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="G9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="H9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="10" t="str">
-        <f t="shared" ref="I9:J9" si="103">VLOOKUP(WEEKDAY(I7,2),semaine,2,FALSE)</f>
+      <c r="I9" s="17"/>
+      <c r="J9" s="10" t="str">
+        <f t="shared" ref="J9:K9" si="103">VLOOKUP(WEEKDAY(J7,2),semaine,2,FALSE)</f>
         <v>M</v>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="K9" s="10" t="str">
         <f t="shared" si="103"/>
         <v>J</v>
       </c>
-      <c r="K9" s="10" t="str">
-        <f t="shared" ref="K9:BV9" si="104">VLOOKUP(WEEKDAY(K7,2),semaine,2,FALSE)</f>
+      <c r="L9" s="10" t="str">
+        <f t="shared" ref="L9:BW9" si="104">VLOOKUP(WEEKDAY(L7,2),semaine,2,FALSE)</f>
         <v>V</v>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="M9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>S</v>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="N9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>D</v>
       </c>
-      <c r="N9" s="10" t="str">
+      <c r="O9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>L</v>
       </c>
-      <c r="O9" s="10" t="str">
+      <c r="P9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="P9" s="10" t="str">
+      <c r="Q9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="Q9" s="10" t="str">
+      <c r="R9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>J</v>
       </c>
-      <c r="R9" s="10" t="str">
+      <c r="S9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>V</v>
       </c>
-      <c r="S9" s="10" t="str">
+      <c r="T9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>S</v>
       </c>
-      <c r="T9" s="10" t="str">
+      <c r="U9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>D</v>
       </c>
-      <c r="U9" s="10" t="str">
+      <c r="V9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>L</v>
       </c>
-      <c r="V9" s="10" t="str">
+      <c r="W9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="W9" s="10" t="str">
+      <c r="X9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="X9" s="10" t="str">
+      <c r="Y9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>J</v>
       </c>
-      <c r="Y9" s="10" t="str">
+      <c r="Z9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>V</v>
       </c>
-      <c r="Z9" s="10" t="str">
+      <c r="AA9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>S</v>
       </c>
-      <c r="AA9" s="10" t="str">
+      <c r="AB9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>D</v>
       </c>
-      <c r="AB9" s="10" t="str">
+      <c r="AC9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>L</v>
       </c>
-      <c r="AC9" s="10" t="str">
+      <c r="AD9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="AD9" s="10" t="str">
+      <c r="AE9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="AE9" s="10" t="str">
+      <c r="AF9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>J</v>
       </c>
-      <c r="AF9" s="10" t="str">
+      <c r="AG9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>V</v>
       </c>
-      <c r="AG9" s="10" t="str">
+      <c r="AH9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>S</v>
       </c>
-      <c r="AH9" s="10" t="str">
+      <c r="AI9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>D</v>
       </c>
-      <c r="AI9" s="10" t="str">
+      <c r="AJ9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>L</v>
       </c>
-      <c r="AJ9" s="10" t="str">
+      <c r="AK9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="AK9" s="10" t="str">
+      <c r="AL9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="AL9" s="10" t="str">
+      <c r="AM9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>J</v>
       </c>
-      <c r="AM9" s="10" t="str">
+      <c r="AN9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>V</v>
       </c>
-      <c r="AN9" s="10" t="str">
+      <c r="AO9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>S</v>
       </c>
-      <c r="AO9" s="10" t="str">
+      <c r="AP9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>D</v>
       </c>
-      <c r="AP9" s="10" t="str">
+      <c r="AQ9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>L</v>
       </c>
-      <c r="AQ9" s="10" t="str">
+      <c r="AR9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="AR9" s="10" t="str">
+      <c r="AS9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="AS9" s="10" t="str">
+      <c r="AT9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>J</v>
       </c>
-      <c r="AT9" s="10" t="str">
+      <c r="AU9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>V</v>
       </c>
-      <c r="AU9" s="10" t="str">
+      <c r="AV9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>S</v>
       </c>
-      <c r="AV9" s="10" t="str">
+      <c r="AW9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>D</v>
       </c>
-      <c r="AW9" s="10" t="str">
+      <c r="AX9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>L</v>
       </c>
-      <c r="AX9" s="10" t="str">
+      <c r="AY9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="AY9" s="10" t="str">
+      <c r="AZ9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="AZ9" s="10" t="str">
+      <c r="BA9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>J</v>
       </c>
-      <c r="BA9" s="10" t="str">
+      <c r="BB9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>V</v>
       </c>
-      <c r="BB9" s="10" t="str">
+      <c r="BC9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>S</v>
       </c>
-      <c r="BC9" s="10" t="str">
+      <c r="BD9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>D</v>
       </c>
-      <c r="BD9" s="10" t="str">
+      <c r="BE9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>L</v>
       </c>
-      <c r="BE9" s="10" t="str">
+      <c r="BF9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="BF9" s="10" t="str">
+      <c r="BG9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="BG9" s="10" t="str">
+      <c r="BH9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>J</v>
       </c>
-      <c r="BH9" s="10" t="str">
+      <c r="BI9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>V</v>
       </c>
-      <c r="BI9" s="10" t="str">
+      <c r="BJ9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>S</v>
       </c>
-      <c r="BJ9" s="10" t="str">
+      <c r="BK9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>D</v>
       </c>
-      <c r="BK9" s="10" t="str">
+      <c r="BL9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>L</v>
       </c>
-      <c r="BL9" s="10" t="str">
+      <c r="BM9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="BM9" s="10" t="str">
+      <c r="BN9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="BN9" s="10" t="str">
+      <c r="BO9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>J</v>
       </c>
-      <c r="BO9" s="10" t="str">
+      <c r="BP9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>V</v>
       </c>
-      <c r="BP9" s="10" t="str">
+      <c r="BQ9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>S</v>
       </c>
-      <c r="BQ9" s="10" t="str">
+      <c r="BR9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>D</v>
       </c>
-      <c r="BR9" s="10" t="str">
+      <c r="BS9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>L</v>
       </c>
-      <c r="BS9" s="10" t="str">
+      <c r="BT9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="BT9" s="10" t="str">
+      <c r="BU9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>M</v>
       </c>
-      <c r="BU9" s="10" t="str">
+      <c r="BV9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>J</v>
       </c>
-      <c r="BV9" s="10" t="str">
+      <c r="BW9" s="10" t="str">
         <f t="shared" si="104"/>
         <v>V</v>
       </c>
-      <c r="BW9" s="10" t="str">
-        <f t="shared" ref="BW9:DQ9" si="105">VLOOKUP(WEEKDAY(BW7,2),semaine,2,FALSE)</f>
+      <c r="BX9" s="10" t="str">
+        <f t="shared" ref="BX9:DR9" si="105">VLOOKUP(WEEKDAY(BX7,2),semaine,2,FALSE)</f>
         <v>S</v>
       </c>
-      <c r="BX9" s="10" t="str">
+      <c r="BY9" s="10" t="str">
         <f t="shared" si="105"/>
         <v>D</v>
       </c>
-      <c r="BY9" s="10" t="str">
+      <c r="BZ9" s="10" t="str">
         <f t="shared" si="105"/>
         <v>L</v>
-      </c>
-      <c r="BZ9" s="10" t="str">
-        <f t="shared" si="105"/>
-        <v>M</v>
       </c>
       <c r="CA9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -2637,27 +3212,27 @@
       </c>
       <c r="CB9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>M</v>
       </c>
       <c r="CC9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>J</v>
       </c>
       <c r="CD9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>V</v>
       </c>
       <c r="CE9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="CF9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>D</v>
       </c>
       <c r="CG9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>L</v>
       </c>
       <c r="CH9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -2665,27 +3240,27 @@
       </c>
       <c r="CI9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>M</v>
       </c>
       <c r="CJ9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>J</v>
       </c>
       <c r="CK9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>V</v>
       </c>
       <c r="CL9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="CM9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>D</v>
       </c>
       <c r="CN9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>L</v>
       </c>
       <c r="CO9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -2693,27 +3268,27 @@
       </c>
       <c r="CP9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>M</v>
       </c>
       <c r="CQ9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>J</v>
       </c>
       <c r="CR9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>V</v>
       </c>
       <c r="CS9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="CT9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>D</v>
       </c>
       <c r="CU9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>L</v>
       </c>
       <c r="CV9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -2721,27 +3296,27 @@
       </c>
       <c r="CW9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>M</v>
       </c>
       <c r="CX9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>J</v>
       </c>
       <c r="CY9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>V</v>
       </c>
       <c r="CZ9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="DA9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>D</v>
       </c>
       <c r="DB9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>L</v>
       </c>
       <c r="DC9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -2749,27 +3324,27 @@
       </c>
       <c r="DD9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>M</v>
       </c>
       <c r="DE9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>J</v>
       </c>
       <c r="DF9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>V</v>
       </c>
       <c r="DG9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="DH9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>D</v>
       </c>
       <c r="DI9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>L</v>
       </c>
       <c r="DJ9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -2777,511 +3352,516 @@
       </c>
       <c r="DK9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>M</v>
       </c>
       <c r="DL9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>J</v>
       </c>
       <c r="DM9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>V</v>
       </c>
       <c r="DN9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="DO9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>D</v>
       </c>
       <c r="DP9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>L</v>
       </c>
       <c r="DQ9" s="10" t="str">
         <f t="shared" si="105"/>
         <v>M</v>
       </c>
-    </row>
-    <row r="10" spans="1:150" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="DR9" s="10" t="str">
+        <f t="shared" si="105"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="10" spans="1:151" s="2" customFormat="1" ht="13" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="10">
-        <f>DAY(I7)</f>
+      <c r="C10" s="13"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="10">
+        <f>DAY(J7)</f>
         <v>20</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" ref="J10" si="106">DAY(J7)</f>
+      <c r="K10" s="10">
+        <f t="shared" ref="K10" si="106">DAY(K7)</f>
         <v>21</v>
       </c>
-      <c r="K10" s="10">
-        <f t="shared" ref="K10:BV10" si="107">DAY(K7)</f>
+      <c r="L10" s="10">
+        <f t="shared" ref="L10:BW10" si="107">DAY(L7)</f>
         <v>22</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <f t="shared" si="107"/>
         <v>23</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <f t="shared" si="107"/>
         <v>24</v>
       </c>
-      <c r="N10" s="41">
+      <c r="O10" s="40">
         <f t="shared" si="107"/>
         <v>25</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="40">
         <f t="shared" si="107"/>
         <v>26</v>
       </c>
-      <c r="P10" s="41">
+      <c r="Q10" s="40">
         <f t="shared" si="107"/>
         <v>27</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="R10" s="40">
         <f t="shared" si="107"/>
         <v>28</v>
       </c>
-      <c r="R10" s="44">
+      <c r="S10" s="43">
         <f t="shared" si="107"/>
         <v>29</v>
       </c>
-      <c r="S10" s="42">
+      <c r="T10" s="41">
         <f t="shared" si="107"/>
         <v>30</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <f t="shared" si="107"/>
         <v>1</v>
       </c>
-      <c r="U10" s="10">
+      <c r="V10" s="10">
         <f t="shared" si="107"/>
         <v>2</v>
       </c>
-      <c r="V10" s="10">
+      <c r="W10" s="10">
         <f t="shared" si="107"/>
         <v>3</v>
       </c>
-      <c r="W10" s="10">
+      <c r="X10" s="10">
         <f t="shared" si="107"/>
         <v>4</v>
       </c>
-      <c r="X10" s="10">
+      <c r="Y10" s="10">
         <f t="shared" si="107"/>
         <v>5</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Z10" s="10">
         <f t="shared" si="107"/>
         <v>6</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="AA10" s="10">
         <f t="shared" si="107"/>
         <v>7</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AB10" s="10">
         <f t="shared" si="107"/>
         <v>8</v>
       </c>
-      <c r="AB10" s="41">
+      <c r="AC10" s="40">
         <f t="shared" si="107"/>
         <v>9</v>
       </c>
-      <c r="AC10" s="41">
+      <c r="AD10" s="40">
         <f t="shared" si="107"/>
         <v>10</v>
       </c>
-      <c r="AD10" s="41">
+      <c r="AE10" s="40">
         <f t="shared" si="107"/>
         <v>11</v>
       </c>
-      <c r="AE10" s="41">
+      <c r="AF10" s="40">
         <f t="shared" si="107"/>
         <v>12</v>
       </c>
-      <c r="AF10" s="41">
+      <c r="AG10" s="40">
         <f t="shared" si="107"/>
         <v>13</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AH10" s="10">
         <f t="shared" si="107"/>
         <v>14</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AI10" s="10">
         <f t="shared" si="107"/>
         <v>15</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="AJ10" s="10">
         <f t="shared" si="107"/>
         <v>16</v>
       </c>
-      <c r="AJ10" s="10">
+      <c r="AK10" s="10">
         <f t="shared" si="107"/>
         <v>17</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AL10" s="10">
         <f t="shared" si="107"/>
         <v>18</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="AM10" s="10">
         <f t="shared" si="107"/>
         <v>19</v>
       </c>
-      <c r="AM10" s="10">
+      <c r="AN10" s="10">
         <f t="shared" si="107"/>
         <v>20</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="AO10" s="10">
         <f t="shared" si="107"/>
         <v>21</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="AP10" s="10">
         <f t="shared" si="107"/>
         <v>22</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AQ10" s="10">
         <f t="shared" si="107"/>
         <v>23</v>
       </c>
-      <c r="AQ10" s="10">
+      <c r="AR10" s="10">
         <f t="shared" si="107"/>
         <v>24</v>
       </c>
-      <c r="AR10" s="10">
+      <c r="AS10" s="10">
         <f t="shared" si="107"/>
         <v>25</v>
       </c>
-      <c r="AS10" s="10">
+      <c r="AT10" s="10">
         <f t="shared" si="107"/>
         <v>26</v>
       </c>
-      <c r="AT10" s="10">
+      <c r="AU10" s="10">
         <f t="shared" si="107"/>
         <v>27</v>
       </c>
-      <c r="AU10" s="10">
+      <c r="AV10" s="10">
         <f t="shared" si="107"/>
         <v>28</v>
       </c>
-      <c r="AV10" s="10">
+      <c r="AW10" s="10">
         <f t="shared" si="107"/>
         <v>29</v>
       </c>
-      <c r="AW10" s="10">
+      <c r="AX10" s="10">
         <f t="shared" si="107"/>
         <v>30</v>
       </c>
-      <c r="AX10" s="10">
+      <c r="AY10" s="10">
         <f t="shared" si="107"/>
         <v>31</v>
       </c>
-      <c r="AY10" s="10">
+      <c r="AZ10" s="10">
         <f t="shared" si="107"/>
         <v>1</v>
       </c>
-      <c r="AZ10" s="10">
+      <c r="BA10" s="10">
         <f t="shared" si="107"/>
         <v>2</v>
       </c>
-      <c r="BA10" s="10">
+      <c r="BB10" s="10">
         <f t="shared" si="107"/>
         <v>3</v>
       </c>
-      <c r="BB10" s="10">
+      <c r="BC10" s="10">
         <f t="shared" si="107"/>
         <v>4</v>
       </c>
-      <c r="BC10" s="10">
+      <c r="BD10" s="10">
         <f t="shared" si="107"/>
         <v>5</v>
       </c>
-      <c r="BD10" s="10">
+      <c r="BE10" s="10">
         <f t="shared" si="107"/>
         <v>6</v>
       </c>
-      <c r="BE10" s="10">
+      <c r="BF10" s="10">
         <f t="shared" si="107"/>
         <v>7</v>
       </c>
-      <c r="BF10" s="10">
+      <c r="BG10" s="10">
         <f t="shared" si="107"/>
         <v>8</v>
       </c>
-      <c r="BG10" s="10">
+      <c r="BH10" s="10">
         <f t="shared" si="107"/>
         <v>9</v>
       </c>
-      <c r="BH10" s="10">
+      <c r="BI10" s="10">
         <f t="shared" si="107"/>
         <v>10</v>
       </c>
-      <c r="BI10" s="10">
+      <c r="BJ10" s="10">
         <f t="shared" si="107"/>
         <v>11</v>
       </c>
-      <c r="BJ10" s="10">
+      <c r="BK10" s="10">
         <f t="shared" si="107"/>
         <v>12</v>
       </c>
-      <c r="BK10" s="10">
+      <c r="BL10" s="10">
         <f t="shared" si="107"/>
         <v>13</v>
       </c>
-      <c r="BL10" s="10">
+      <c r="BM10" s="10">
         <f t="shared" si="107"/>
         <v>14</v>
       </c>
-      <c r="BM10" s="10">
+      <c r="BN10" s="10">
         <f t="shared" si="107"/>
         <v>15</v>
       </c>
-      <c r="BN10" s="10">
+      <c r="BO10" s="10">
         <f t="shared" si="107"/>
         <v>16</v>
       </c>
-      <c r="BO10" s="10">
+      <c r="BP10" s="10">
         <f t="shared" si="107"/>
         <v>17</v>
       </c>
-      <c r="BP10" s="10">
+      <c r="BQ10" s="10">
         <f t="shared" si="107"/>
         <v>18</v>
       </c>
-      <c r="BQ10" s="10">
+      <c r="BR10" s="10">
         <f t="shared" si="107"/>
         <v>19</v>
       </c>
-      <c r="BR10" s="43">
+      <c r="BS10" s="42">
         <f t="shared" si="107"/>
         <v>20</v>
       </c>
-      <c r="BS10" s="43">
+      <c r="BT10" s="42">
         <f t="shared" si="107"/>
         <v>21</v>
       </c>
-      <c r="BT10" s="43">
+      <c r="BU10" s="42">
         <f t="shared" si="107"/>
         <v>22</v>
       </c>
-      <c r="BU10" s="43">
+      <c r="BV10" s="42">
         <f t="shared" si="107"/>
         <v>23</v>
       </c>
-      <c r="BV10" s="43">
+      <c r="BW10" s="42">
         <f t="shared" si="107"/>
         <v>24</v>
       </c>
-      <c r="BW10" s="10">
-        <f t="shared" ref="BW10:DQ10" si="108">DAY(BW7)</f>
+      <c r="BX10" s="10">
+        <f t="shared" ref="BX10:DR10" si="108">DAY(BX7)</f>
         <v>25</v>
       </c>
-      <c r="BX10" s="10">
+      <c r="BY10" s="10">
         <f t="shared" si="108"/>
         <v>26</v>
       </c>
-      <c r="BY10" s="44">
+      <c r="BZ10" s="43">
         <f t="shared" si="108"/>
         <v>27</v>
       </c>
-      <c r="BZ10" s="44">
+      <c r="CA10" s="43">
         <f t="shared" si="108"/>
         <v>28</v>
       </c>
-      <c r="CA10" s="44">
+      <c r="CB10" s="43">
         <f t="shared" si="108"/>
         <v>29</v>
       </c>
-      <c r="CB10" s="44">
+      <c r="CC10" s="43">
         <f t="shared" si="108"/>
         <v>30</v>
       </c>
-      <c r="CC10" s="44">
+      <c r="CD10" s="43">
         <f t="shared" si="108"/>
         <v>1</v>
       </c>
-      <c r="CD10" s="10">
+      <c r="CE10" s="10">
         <f t="shared" si="108"/>
         <v>2</v>
       </c>
-      <c r="CE10" s="10">
+      <c r="CF10" s="10">
         <f t="shared" si="108"/>
         <v>3</v>
       </c>
-      <c r="CF10" s="10">
+      <c r="CG10" s="10">
         <f t="shared" si="108"/>
         <v>4</v>
       </c>
-      <c r="CG10" s="10">
+      <c r="CH10" s="10">
         <f t="shared" si="108"/>
         <v>5</v>
       </c>
-      <c r="CH10" s="10">
+      <c r="CI10" s="10">
         <f t="shared" si="108"/>
         <v>6</v>
       </c>
-      <c r="CI10" s="10">
+      <c r="CJ10" s="10">
         <f t="shared" si="108"/>
         <v>7</v>
       </c>
-      <c r="CJ10" s="10">
+      <c r="CK10" s="10">
         <f t="shared" si="108"/>
         <v>8</v>
       </c>
-      <c r="CK10" s="10">
+      <c r="CL10" s="10">
         <f t="shared" si="108"/>
         <v>9</v>
       </c>
-      <c r="CL10" s="10">
+      <c r="CM10" s="10">
         <f t="shared" si="108"/>
         <v>10</v>
       </c>
-      <c r="CM10" s="10">
+      <c r="CN10" s="10">
         <f t="shared" si="108"/>
         <v>11</v>
       </c>
-      <c r="CN10" s="10">
+      <c r="CO10" s="10">
         <f t="shared" si="108"/>
         <v>12</v>
       </c>
-      <c r="CO10" s="10">
+      <c r="CP10" s="10">
         <f t="shared" si="108"/>
         <v>13</v>
       </c>
-      <c r="CP10" s="10">
+      <c r="CQ10" s="10">
         <f t="shared" si="108"/>
         <v>14</v>
       </c>
-      <c r="CQ10" s="10">
+      <c r="CR10" s="10">
         <f t="shared" si="108"/>
         <v>15</v>
       </c>
-      <c r="CR10" s="10">
+      <c r="CS10" s="10">
         <f t="shared" si="108"/>
         <v>16</v>
       </c>
-      <c r="CS10" s="10">
+      <c r="CT10" s="10">
         <f t="shared" si="108"/>
         <v>17</v>
       </c>
-      <c r="CT10" s="10">
+      <c r="CU10" s="10">
         <f t="shared" si="108"/>
         <v>18</v>
       </c>
-      <c r="CU10" s="10">
+      <c r="CV10" s="10">
         <f t="shared" si="108"/>
         <v>19</v>
       </c>
-      <c r="CV10" s="10">
+      <c r="CW10" s="10">
         <f t="shared" si="108"/>
         <v>20</v>
       </c>
-      <c r="CW10" s="10">
+      <c r="CX10" s="10">
         <f t="shared" si="108"/>
         <v>21</v>
       </c>
-      <c r="CX10" s="10">
+      <c r="CY10" s="10">
         <f t="shared" si="108"/>
         <v>22</v>
       </c>
-      <c r="CY10" s="10">
+      <c r="CZ10" s="10">
         <f t="shared" si="108"/>
         <v>23</v>
       </c>
-      <c r="CZ10" s="10">
+      <c r="DA10" s="10">
         <f t="shared" si="108"/>
         <v>24</v>
       </c>
-      <c r="DA10" s="10">
+      <c r="DB10" s="10">
         <f t="shared" si="108"/>
         <v>25</v>
       </c>
-      <c r="DB10" s="10">
+      <c r="DC10" s="10">
         <f t="shared" si="108"/>
         <v>26</v>
       </c>
-      <c r="DC10" s="10">
+      <c r="DD10" s="10">
         <f t="shared" si="108"/>
         <v>27</v>
       </c>
-      <c r="DD10" s="10">
+      <c r="DE10" s="10">
         <f t="shared" si="108"/>
         <v>28</v>
       </c>
-      <c r="DE10" s="10">
+      <c r="DF10" s="10">
         <f t="shared" si="108"/>
         <v>29</v>
       </c>
-      <c r="DF10" s="10">
+      <c r="DG10" s="10">
         <f t="shared" si="108"/>
         <v>30</v>
       </c>
-      <c r="DG10" s="10">
+      <c r="DH10" s="10">
         <f t="shared" si="108"/>
         <v>31</v>
       </c>
-      <c r="DH10" s="10">
+      <c r="DI10" s="10">
         <f t="shared" si="108"/>
         <v>1</v>
       </c>
-      <c r="DI10" s="10">
+      <c r="DJ10" s="10">
         <f t="shared" si="108"/>
         <v>2</v>
       </c>
-      <c r="DJ10" s="10">
+      <c r="DK10" s="10">
         <f t="shared" si="108"/>
         <v>3</v>
       </c>
-      <c r="DK10" s="10">
+      <c r="DL10" s="10">
         <f t="shared" si="108"/>
         <v>4</v>
       </c>
-      <c r="DL10" s="10">
+      <c r="DM10" s="10">
         <f t="shared" si="108"/>
         <v>5</v>
       </c>
-      <c r="DM10" s="10">
+      <c r="DN10" s="10">
         <f t="shared" si="108"/>
         <v>6</v>
       </c>
-      <c r="DN10" s="10">
+      <c r="DO10" s="10">
         <f t="shared" si="108"/>
         <v>7</v>
       </c>
-      <c r="DO10" s="10">
+      <c r="DP10" s="10">
         <f t="shared" si="108"/>
         <v>8</v>
       </c>
-      <c r="DP10" s="10">
+      <c r="DQ10" s="10">
         <f t="shared" si="108"/>
         <v>9</v>
       </c>
-      <c r="DQ10" s="10">
+      <c r="DR10" s="10">
         <f t="shared" si="108"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:150" s="2" customFormat="1" ht="13" customHeight="1">
+    <row r="11" spans="1:151" s="2" customFormat="1" ht="13" customHeight="1">
       <c r="A11" s="19">
         <v>1</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+      <c r="D11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
@@ -3394,1375 +3974,1841 @@
       <c r="DO11" s="23"/>
       <c r="DP11" s="23"/>
       <c r="DQ11" s="23"/>
-    </row>
-    <row r="12" spans="1:150" ht="13" customHeight="1">
+      <c r="DR11" s="23"/>
+    </row>
+    <row r="12" spans="1:151" ht="13" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="31">
-        <v>42483</v>
-      </c>
-      <c r="E12" s="12">
-        <v>4</v>
-      </c>
-      <c r="F12" s="35">
-        <f>IF(C12="","",IF($D$5="OUI",WORKDAY(D12,IF(WEEKDAY(D12,2)&gt;=6,E12,E12-1)),D12+E12-1))</f>
-        <v>42486</v>
-      </c>
-      <c r="G12" s="39">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" ref="H12" si="109">D12+G12*(F12-D12)</f>
-        <v>42486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:150" ht="13" customHeight="1">
+      <c r="C12" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="31">
+        <v>42492</v>
+      </c>
+      <c r="F12" s="12">
+        <v>7</v>
+      </c>
+      <c r="G12" s="35">
+        <f>IF(D12="","",IF($E$5="OUI",WORKDAY(E12,IF(WEEKDAY(E12,2)&gt;=6,F12,F12-1)),E12+F12-1))</f>
+        <v>42498</v>
+      </c>
+      <c r="H12" s="39">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" ref="I12" si="109">E12+H12*(G12-E12)</f>
+        <v>42492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:151" ht="13" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="C13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="31">
+        <v>42485</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="35">
+        <f>IF(D13="","",IF($E$5="OUI",WORKDAY(E13,IF(WEEKDAY(E13,2)&gt;=6,F13,F13-1)),E13+F13-1))</f>
+        <v>42485</v>
+      </c>
+      <c r="H13" s="39">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" ref="I13:I14" si="110">E13+H13*(G13-E13)</f>
+        <v>42485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:151" ht="13" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="31">
+      <c r="E14" s="31">
         <v>42485</v>
       </c>
-      <c r="E13" s="12">
+      <c r="F14" s="12">
+        <v>2</v>
+      </c>
+      <c r="G14" s="35">
+        <f>IF(D14="","",IF($E$5="OUI",WORKDAY(E14,IF(WEEKDAY(E14,2)&gt;=6,F14,F14-1)),E14+F14-1))</f>
+        <v>42486</v>
+      </c>
+      <c r="H14" s="39">
         <v>1</v>
       </c>
-      <c r="F13" s="35">
-        <f t="shared" ref="F13:F19" si="110">IF(C13="","",IF($D$5="OUI",WORKDAY(D13,IF(WEEKDAY(D13,2)&gt;=6,E13,E13-1)),D13+E13-1))</f>
-        <v>42485</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
-        <f t="shared" ref="H13:H14" si="111">D13+G13*(F13-D13)</f>
-        <v>42485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:150" ht="13" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="31">
-        <v>42485</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2</v>
-      </c>
-      <c r="F14" s="35">
+      <c r="I14" s="18">
         <f t="shared" si="110"/>
         <v>42486</v>
       </c>
-      <c r="G14" s="39">
+    </row>
+    <row r="15" spans="1:151" ht="13" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="31">
+        <v>42485</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="35">
+        <f>IF(D15="","",IF($E$5="OUI",WORKDAY(E15,IF(WEEKDAY(E15,2)&gt;=6,F15,F15-1)),E15+F15-1))</f>
+        <v>42486</v>
+      </c>
+      <c r="H15" s="39">
         <v>1</v>
       </c>
-      <c r="H14" s="18">
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:151" ht="13" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="31">
+        <v>42500</v>
+      </c>
+      <c r="F16" s="12">
+        <v>6</v>
+      </c>
+      <c r="G16" s="35">
+        <f>IF(D16="","",IF($E$5="OUI",WORKDAY(E16,IF(WEEKDAY(E16,2)&gt;=6,F16,F16-1)),E16+F16-1))</f>
+        <v>42505</v>
+      </c>
+      <c r="H16" s="39">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="35">
+        <f>IF(D17="","",IF($E$5="OUI",WORKDAY(E17,IF(WEEKDAY(E17,2)&gt;=6,F17,F17-1)),E17+F17-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:122" s="2" customFormat="1" ht="14" customHeight="1">
+      <c r="A18" s="19">
+        <v>2</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="23"/>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
+      <c r="BJ18" s="23"/>
+      <c r="BK18" s="23"/>
+      <c r="BL18" s="23"/>
+      <c r="BM18" s="23"/>
+      <c r="BN18" s="23"/>
+      <c r="BO18" s="23"/>
+      <c r="BP18" s="23"/>
+      <c r="BQ18" s="23"/>
+      <c r="BR18" s="23"/>
+      <c r="BS18" s="23"/>
+      <c r="BT18" s="23"/>
+      <c r="BU18" s="23"/>
+      <c r="BV18" s="23"/>
+      <c r="BW18" s="23"/>
+      <c r="BX18" s="23"/>
+      <c r="BY18" s="23"/>
+      <c r="BZ18" s="23"/>
+      <c r="CA18" s="23"/>
+      <c r="CB18" s="23"/>
+      <c r="CC18" s="23"/>
+      <c r="CD18" s="23"/>
+      <c r="CE18" s="23"/>
+      <c r="CF18" s="23"/>
+      <c r="CG18" s="23"/>
+      <c r="CH18" s="23"/>
+      <c r="CI18" s="23"/>
+      <c r="CJ18" s="23"/>
+      <c r="CK18" s="23"/>
+      <c r="CL18" s="23"/>
+      <c r="CM18" s="23"/>
+      <c r="CN18" s="23"/>
+      <c r="CO18" s="23"/>
+      <c r="CP18" s="23"/>
+      <c r="CQ18" s="23"/>
+      <c r="CR18" s="23"/>
+      <c r="CS18" s="23"/>
+      <c r="CT18" s="23"/>
+      <c r="CU18" s="23"/>
+      <c r="CV18" s="23"/>
+      <c r="CW18" s="23"/>
+      <c r="CX18" s="23"/>
+      <c r="CY18" s="23"/>
+      <c r="CZ18" s="23"/>
+      <c r="DA18" s="23"/>
+      <c r="DB18" s="23"/>
+      <c r="DC18" s="23"/>
+      <c r="DD18" s="23"/>
+      <c r="DE18" s="23"/>
+      <c r="DF18" s="23"/>
+      <c r="DG18" s="23"/>
+      <c r="DH18" s="23"/>
+      <c r="DI18" s="23"/>
+      <c r="DJ18" s="23"/>
+      <c r="DK18" s="23"/>
+      <c r="DL18" s="23"/>
+      <c r="DM18" s="23"/>
+      <c r="DN18" s="23"/>
+      <c r="DO18" s="23"/>
+      <c r="DP18" s="23"/>
+      <c r="DQ18" s="23"/>
+      <c r="DR18" s="23"/>
+    </row>
+    <row r="19" spans="1:122" ht="13" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="31">
+        <v>42499</v>
+      </c>
+      <c r="F19" s="62">
+        <f>6+4+6</f>
+        <v>16</v>
+      </c>
+      <c r="G19" s="35">
+        <f>IF(D19="","",IF($E$5="OUI",WORKDAY(E19,IF(WEEKDAY(E19,2)&gt;=6,F19,F19-1)),E19+F19-1))</f>
+        <v>42514</v>
+      </c>
+      <c r="H19" s="39">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" ref="I19:I36" si="111">E19+H19*(G19-E19)</f>
+        <v>42499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:122" hidden="1">
+      <c r="B20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="35">
+        <f>IF(D20="","",IF($E$5="OUI",WORKDAY(E20,IF(WEEKDAY(E20,2)&gt;=6,F20,F20-1)),E20+F20-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:122" hidden="1">
+      <c r="B21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="35">
+        <f>IF(D21="","",IF($E$5="OUI",WORKDAY(E21,IF(WEEKDAY(E21,2)&gt;=6,F21,F21-1)),E21+F21-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H21" s="39">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:122" hidden="1">
+      <c r="B22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="35">
+        <f>IF(D22="","",IF($E$5="OUI",WORKDAY(E22,IF(WEEKDAY(E22,2)&gt;=6,F22,F22-1)),E22+F22-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:122" hidden="1">
+      <c r="B23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="35">
+        <f>IF(D23="","",IF($E$5="OUI",WORKDAY(E23,IF(WEEKDAY(E23,2)&gt;=6,F23,F23-1)),E23+F23-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H23" s="39">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:122" ht="13" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="31">
+        <v>42507</v>
+      </c>
+      <c r="F24" s="63">
+        <f>2*1</f>
+        <v>2</v>
+      </c>
+      <c r="G24" s="35">
+        <f>IF(D24="","",IF($E$5="OUI",WORKDAY(E24,IF(WEEKDAY(E24,2)&gt;=6,F24,F24-1)),E24+F24-1))</f>
+        <v>42508</v>
+      </c>
+      <c r="H24" s="39">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="B25" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="35">
+        <f>IF(D25="","",IF($E$5="OUI",WORKDAY(E25,IF(WEEKDAY(E25,2)&gt;=6,F25,F25-1)),E25+F25-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H25" s="39">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="B26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="35">
+        <f>IF(D26="","",IF($E$5="OUI",WORKDAY(E26,IF(WEEKDAY(E26,2)&gt;=6,F26,F26-1)),E26+F26-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="B27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="35">
+        <f>IF(D27="","",IF($E$5="OUI",WORKDAY(E27,IF(WEEKDAY(E27,2)&gt;=6,F27,F27-1)),E27+F27-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="B28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="35">
+        <f>IF(D28="","",IF($E$5="OUI",WORKDAY(E28,IF(WEEKDAY(E28,2)&gt;=6,F28,F28-1)),E28+F28-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="B29" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="35">
+        <f>IF(D29="","",IF($E$5="OUI",WORKDAY(E29,IF(WEEKDAY(E29,2)&gt;=6,F29,F29-1)),E29+F29-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H29" s="39">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:122">
+      <c r="A30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="31">
+        <v>42510</v>
+      </c>
+      <c r="F30" s="63">
+        <f>2*1*2</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="35">
+        <f>IF(D30="","",IF($E$5="OUI",WORKDAY(E30,IF(WEEKDAY(E30,2)&gt;=6,F30,F30-1)),E30+F30-1))</f>
+        <v>42513</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:122" hidden="1">
+      <c r="A31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="35">
+        <f>IF(D31="","",IF($E$5="OUI",WORKDAY(E31,IF(WEEKDAY(E31,2)&gt;=6,F31,F31-1)),E31+F31-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H31" s="39">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:122" hidden="1">
+      <c r="A32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="35">
+        <f>IF(D32="","",IF($E$5="OUI",WORKDAY(E32,IF(WEEKDAY(E32,2)&gt;=6,F32,F32-1)),E32+F32-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H32" s="39">
+        <v>0</v>
+      </c>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:122">
+      <c r="A33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="31">
+        <v>42518</v>
+      </c>
+      <c r="F33" s="62">
+        <f>2*1+2*1</f>
+        <v>4</v>
+      </c>
+      <c r="G33" s="35">
+        <f>IF(D33="","",IF($E$5="OUI",WORKDAY(E33,IF(WEEKDAY(E33,2)&gt;=6,F33,F33-1)),E33+F33-1))</f>
+        <v>42521</v>
+      </c>
+      <c r="H33" s="39">
+        <v>0</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:122" hidden="1">
+      <c r="B34" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:122" hidden="1">
+      <c r="B35" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:122">
+      <c r="A36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="31">
+        <v>42518</v>
+      </c>
+      <c r="F36" s="62">
+        <f>0.5+6+2</f>
+        <v>8.5</v>
+      </c>
+      <c r="G36" s="35">
+        <f>IF(D37="","",IF($E$5="OUI",WORKDAY(E36,IF(WEEKDAY(E36,2)&gt;=6,F36,F36-1)),E36+F36-1))</f>
+        <v>42525.5</v>
+      </c>
+      <c r="H36" s="39">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18">
         <f t="shared" si="111"/>
-        <v>42486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:150" ht="13" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="26" t="s">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:122" hidden="1">
+      <c r="A37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="31">
+        <v>42519</v>
+      </c>
+      <c r="F37" s="62">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="G37" s="35">
+        <f t="shared" ref="G37:G40" si="112">IF(D38="","",IF($E$5="OUI",WORKDAY(E37,IF(WEEKDAY(E37,2)&gt;=6,F37,F37-1)),E37+F37-1))</f>
+        <v>42522</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:122" hidden="1">
+      <c r="B38" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="31">
+        <v>42520</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="35">
+        <f t="shared" si="112"/>
+        <v>42519</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:122" hidden="1">
+      <c r="A39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="31">
+        <v>42521</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="35">
+        <f t="shared" si="112"/>
+        <v>42520</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:122">
+      <c r="A40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="31">
+        <v>42524</v>
+      </c>
+      <c r="F40" s="12">
+        <v>2</v>
+      </c>
+      <c r="G40" s="35">
+        <f t="shared" si="112"/>
+        <v>42525</v>
+      </c>
+      <c r="H40" s="39">
+        <v>0</v>
+      </c>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:122" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A41" s="19">
+        <v>3</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="23"/>
+      <c r="AQ41" s="23"/>
+      <c r="AR41" s="23"/>
+      <c r="AS41" s="23"/>
+      <c r="AT41" s="23"/>
+      <c r="AU41" s="23"/>
+      <c r="AV41" s="23"/>
+      <c r="AW41" s="23"/>
+      <c r="AX41" s="23"/>
+      <c r="AY41" s="23"/>
+      <c r="AZ41" s="23"/>
+      <c r="BA41" s="23"/>
+      <c r="BB41" s="23"/>
+      <c r="BC41" s="23"/>
+      <c r="BD41" s="23"/>
+      <c r="BE41" s="23"/>
+      <c r="BF41" s="23"/>
+      <c r="BG41" s="23"/>
+      <c r="BH41" s="23"/>
+      <c r="BI41" s="23"/>
+      <c r="BJ41" s="23"/>
+      <c r="BK41" s="23"/>
+      <c r="BL41" s="23"/>
+      <c r="BM41" s="23"/>
+      <c r="BN41" s="23"/>
+      <c r="BO41" s="23"/>
+      <c r="BP41" s="23"/>
+      <c r="BQ41" s="23"/>
+      <c r="BR41" s="23"/>
+      <c r="BS41" s="23"/>
+      <c r="BT41" s="23"/>
+      <c r="BU41" s="23"/>
+      <c r="BV41" s="23"/>
+      <c r="BW41" s="23"/>
+      <c r="BX41" s="23"/>
+      <c r="BY41" s="23"/>
+      <c r="BZ41" s="23"/>
+      <c r="CA41" s="23"/>
+      <c r="CB41" s="23"/>
+      <c r="CC41" s="23"/>
+      <c r="CD41" s="23"/>
+      <c r="CE41" s="23"/>
+      <c r="CF41" s="23"/>
+      <c r="CG41" s="23"/>
+      <c r="CH41" s="23"/>
+      <c r="CI41" s="23"/>
+      <c r="CJ41" s="23"/>
+      <c r="CK41" s="23"/>
+      <c r="CL41" s="23"/>
+      <c r="CM41" s="23"/>
+      <c r="CN41" s="23"/>
+      <c r="CO41" s="23"/>
+      <c r="CP41" s="23"/>
+      <c r="CQ41" s="23"/>
+      <c r="CR41" s="23"/>
+      <c r="CS41" s="23"/>
+      <c r="CT41" s="23"/>
+      <c r="CU41" s="23"/>
+      <c r="CV41" s="23"/>
+      <c r="CW41" s="23"/>
+      <c r="CX41" s="23"/>
+      <c r="CY41" s="23"/>
+      <c r="CZ41" s="23"/>
+      <c r="DA41" s="23"/>
+      <c r="DB41" s="23"/>
+      <c r="DC41" s="23"/>
+      <c r="DD41" s="23"/>
+      <c r="DE41" s="23"/>
+      <c r="DF41" s="23"/>
+      <c r="DG41" s="23"/>
+      <c r="DH41" s="23"/>
+      <c r="DI41" s="23"/>
+      <c r="DJ41" s="23"/>
+      <c r="DK41" s="23"/>
+      <c r="DL41" s="23"/>
+      <c r="DM41" s="23"/>
+      <c r="DN41" s="23"/>
+      <c r="DO41" s="23"/>
+      <c r="DP41" s="23"/>
+      <c r="DQ41" s="23"/>
+      <c r="DR41" s="23"/>
+    </row>
+    <row r="42" spans="1:122" ht="13" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="31">
+        <v>42500</v>
+      </c>
+      <c r="F42" s="12">
+        <v>6</v>
+      </c>
+      <c r="G42" s="35">
+        <f>IF(D42="","",IF($E$5="OUI",WORKDAY(E42,IF(WEEKDAY(E42,2)&gt;=6,F42,F42-1)),E42+F42-1))</f>
+        <v>42505</v>
+      </c>
+      <c r="H42" s="39">
+        <v>0</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" ref="I42:I44" si="113">E42+H42*(G42-E42)</f>
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="35">
+        <f>IF(D43="","",IF($E$5="OUI",WORKDAY(E43,IF(WEEKDAY(E43,2)&gt;=6,F43,F43-1)),E43+F43-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H43" s="39">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:122" ht="13" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="31">
+        <v>42556</v>
+      </c>
+      <c r="F44" s="12">
+        <v>16</v>
+      </c>
+      <c r="G44" s="35">
+        <f>IF(D44="","",IF($E$5="OUI",WORKDAY(E44,IF(WEEKDAY(E44,2)&gt;=6,F44,F44-1)),E44+F44-1))</f>
+        <v>42571</v>
+      </c>
+      <c r="H44" s="39">
+        <v>0</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="113"/>
+        <v>42556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:122" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A45" s="19">
+        <v>4</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="31">
-        <v>42485</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2</v>
-      </c>
-      <c r="F15" s="35">
-        <f t="shared" si="110"/>
-        <v>42486</v>
-      </c>
-      <c r="G15" s="39">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:150" ht="13" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="31">
-        <v>42489</v>
-      </c>
-      <c r="E16" s="12">
-        <v>3</v>
-      </c>
-      <c r="F16" s="35">
-        <f t="shared" si="110"/>
-        <v>42491</v>
-      </c>
-      <c r="G16" s="39">
+      <c r="E45" s="27"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="61">
+        <v>42571</v>
+      </c>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38"/>
+      <c r="AE45" s="38"/>
+      <c r="AF45" s="38"/>
+      <c r="AG45" s="38"/>
+      <c r="AH45" s="38"/>
+      <c r="AI45" s="38"/>
+      <c r="AJ45" s="38"/>
+      <c r="AK45" s="38"/>
+      <c r="AL45" s="38"/>
+      <c r="AM45" s="38"/>
+      <c r="AN45" s="38"/>
+      <c r="AO45" s="38"/>
+      <c r="AP45" s="38"/>
+      <c r="AQ45" s="38"/>
+      <c r="AR45" s="38"/>
+      <c r="AS45" s="38"/>
+      <c r="AT45" s="38"/>
+      <c r="AU45" s="38"/>
+      <c r="AV45" s="38"/>
+      <c r="AW45" s="38"/>
+      <c r="AX45" s="38"/>
+      <c r="AY45" s="38"/>
+      <c r="AZ45" s="38"/>
+      <c r="BA45" s="38"/>
+      <c r="BB45" s="38"/>
+      <c r="BC45" s="38"/>
+      <c r="BD45" s="38"/>
+      <c r="BE45" s="38"/>
+      <c r="BF45" s="38"/>
+      <c r="BG45" s="38"/>
+      <c r="BH45" s="38"/>
+      <c r="BI45" s="38"/>
+      <c r="BJ45" s="38"/>
+      <c r="BK45" s="38"/>
+      <c r="BL45" s="38"/>
+      <c r="BM45" s="38"/>
+      <c r="BN45" s="38"/>
+      <c r="BO45" s="38"/>
+      <c r="BP45" s="38"/>
+      <c r="BQ45" s="38"/>
+      <c r="BR45" s="38"/>
+      <c r="BS45" s="38"/>
+      <c r="BT45" s="38"/>
+      <c r="BU45" s="38"/>
+      <c r="BV45" s="38"/>
+      <c r="BW45" s="38"/>
+      <c r="BX45" s="38"/>
+      <c r="BY45" s="38"/>
+      <c r="BZ45" s="38"/>
+      <c r="CA45" s="38"/>
+      <c r="CB45" s="38"/>
+      <c r="CC45" s="38"/>
+      <c r="CD45" s="38"/>
+      <c r="CE45" s="38"/>
+      <c r="CF45" s="38"/>
+      <c r="CG45" s="38"/>
+      <c r="CH45" s="38"/>
+      <c r="CI45" s="38"/>
+      <c r="CJ45" s="38"/>
+      <c r="CK45" s="38"/>
+      <c r="CL45" s="38"/>
+      <c r="CM45" s="38"/>
+      <c r="CN45" s="38"/>
+      <c r="CO45" s="38"/>
+      <c r="CP45" s="38"/>
+      <c r="CQ45" s="38"/>
+      <c r="CR45" s="38"/>
+      <c r="CS45" s="38"/>
+      <c r="CT45" s="38"/>
+      <c r="CU45" s="38"/>
+      <c r="CV45" s="38"/>
+      <c r="CW45" s="64"/>
+      <c r="CX45" s="38"/>
+      <c r="CY45" s="38"/>
+      <c r="CZ45" s="38"/>
+      <c r="DA45" s="38"/>
+      <c r="DB45" s="38"/>
+      <c r="DC45" s="38"/>
+      <c r="DD45" s="38"/>
+      <c r="DE45" s="38"/>
+      <c r="DF45" s="38"/>
+      <c r="DG45" s="38"/>
+      <c r="DH45" s="38"/>
+      <c r="DI45" s="38"/>
+      <c r="DJ45" s="38"/>
+      <c r="DK45" s="38"/>
+      <c r="DL45" s="38"/>
+      <c r="DM45" s="38"/>
+      <c r="DN45" s="38"/>
+      <c r="DO45" s="23"/>
+      <c r="DP45" s="23"/>
+      <c r="DQ45" s="23"/>
+      <c r="DR45" s="23"/>
+    </row>
+    <row r="46" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="A46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="35">
+        <f>IF(D46="","",IF($E$5="OUI",WORKDAY(E46,IF(WEEKDAY(E46,2)&gt;=6,F46,F46-1)),E46+F46-1))</f>
+        <v>-1</v>
+      </c>
+      <c r="H46" s="39">
         <v>0</v>
       </c>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:121" ht="13" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="31">
-        <v>42494</v>
-      </c>
-      <c r="E17" s="12">
-        <v>5</v>
-      </c>
-      <c r="F17" s="35">
-        <f t="shared" si="110"/>
-        <v>42498</v>
-      </c>
-      <c r="G17" s="39">
+      <c r="I46" s="18">
+        <f t="shared" ref="I46:I48" si="114">E46+H46*(G46-E46)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:121" ht="13" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="31">
-        <v>42503</v>
-      </c>
-      <c r="E18" s="12">
-        <v>3</v>
-      </c>
-      <c r="F18" s="35">
-        <f t="shared" si="110"/>
-        <v>42505</v>
-      </c>
-      <c r="G18" s="39">
+    </row>
+    <row r="47" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="A47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="35" t="str">
+        <f>IF(D47="","",IF($E$5="OUI",WORKDAY(E47,IF(WEEKDAY(E47,2)&gt;=6,F47,F47-1)),E47+F47-1))</f>
+        <v/>
+      </c>
+      <c r="H47" s="39">
         <v>0</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:121" ht="13" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="31">
-        <v>42508</v>
-      </c>
-      <c r="E19" s="12">
-        <v>4</v>
-      </c>
-      <c r="F19" s="35">
-        <f t="shared" si="110"/>
-        <v>42511</v>
-      </c>
-      <c r="G19" s="39">
+      <c r="I47" s="18" t="e">
+        <f t="shared" si="114"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="A48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="35" t="str">
+        <f>IF(D48="","",IF($E$5="OUI",WORKDAY(E48,IF(WEEKDAY(E48,2)&gt;=6,F48,F48-1)),E48+F48-1))</f>
+        <v/>
+      </c>
+      <c r="H48" s="39">
         <v>0</v>
       </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:121" s="2" customFormat="1" ht="13" customHeight="1">
-      <c r="A20" s="19">
-        <v>2</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="23"/>
-      <c r="AN20" s="23"/>
-      <c r="AO20" s="23"/>
-      <c r="AP20" s="23"/>
-      <c r="AQ20" s="23"/>
-      <c r="AR20" s="23"/>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="23"/>
-      <c r="AU20" s="23"/>
-      <c r="AV20" s="23"/>
-      <c r="AW20" s="23"/>
-      <c r="AX20" s="23"/>
-      <c r="AY20" s="23"/>
-      <c r="AZ20" s="23"/>
-      <c r="BA20" s="23"/>
-      <c r="BB20" s="23"/>
-      <c r="BC20" s="23"/>
-      <c r="BD20" s="23"/>
-      <c r="BE20" s="23"/>
-      <c r="BF20" s="23"/>
-      <c r="BG20" s="23"/>
-      <c r="BH20" s="23"/>
-      <c r="BI20" s="23"/>
-      <c r="BJ20" s="23"/>
-      <c r="BK20" s="23"/>
-      <c r="BL20" s="23"/>
-      <c r="BM20" s="23"/>
-      <c r="BN20" s="23"/>
-      <c r="BO20" s="23"/>
-      <c r="BP20" s="23"/>
-      <c r="BQ20" s="23"/>
-      <c r="BR20" s="23"/>
-      <c r="BS20" s="23"/>
-      <c r="BT20" s="23"/>
-      <c r="BU20" s="23"/>
-      <c r="BV20" s="23"/>
-      <c r="BW20" s="23"/>
-      <c r="BX20" s="23"/>
-      <c r="BY20" s="23"/>
-      <c r="BZ20" s="23"/>
-      <c r="CA20" s="23"/>
-      <c r="CB20" s="23"/>
-      <c r="CC20" s="23"/>
-      <c r="CD20" s="23"/>
-      <c r="CE20" s="23"/>
-      <c r="CF20" s="23"/>
-      <c r="CG20" s="23"/>
-      <c r="CH20" s="23"/>
-      <c r="CI20" s="23"/>
-      <c r="CJ20" s="23"/>
-      <c r="CK20" s="23"/>
-      <c r="CL20" s="23"/>
-      <c r="CM20" s="23"/>
-      <c r="CN20" s="23"/>
-      <c r="CO20" s="23"/>
-      <c r="CP20" s="23"/>
-      <c r="CQ20" s="23"/>
-      <c r="CR20" s="23"/>
-      <c r="CS20" s="23"/>
-      <c r="CT20" s="23"/>
-      <c r="CU20" s="23"/>
-      <c r="CV20" s="23"/>
-      <c r="CW20" s="23"/>
-      <c r="CX20" s="23"/>
-      <c r="CY20" s="23"/>
-      <c r="CZ20" s="23"/>
-      <c r="DA20" s="23"/>
-      <c r="DB20" s="23"/>
-      <c r="DC20" s="23"/>
-      <c r="DD20" s="23"/>
-      <c r="DE20" s="23"/>
-      <c r="DF20" s="23"/>
-      <c r="DG20" s="23"/>
-      <c r="DH20" s="23"/>
-      <c r="DI20" s="23"/>
-      <c r="DJ20" s="23"/>
-      <c r="DK20" s="23"/>
-      <c r="DL20" s="23"/>
-      <c r="DM20" s="23"/>
-      <c r="DN20" s="23"/>
-      <c r="DO20" s="23"/>
-      <c r="DP20" s="23"/>
-      <c r="DQ20" s="23"/>
-    </row>
-    <row r="21" spans="1:121" ht="13" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="39">
+      <c r="I48" s="18" t="e">
+        <f t="shared" si="114"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" ht="13" customHeight="1">
+      <c r="D49" s="11"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="35"/>
+      <c r="I49" s="18">
+        <f t="shared" ref="I49:I56" si="115">E49+H49*(G49-E49)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="18">
-        <f t="shared" ref="H21:H23" si="112">D21+G21*(F21-D21)</f>
+    </row>
+    <row r="50" spans="4:9" ht="13" customHeight="1">
+      <c r="D50" s="11"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="35"/>
+      <c r="I50" s="18">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:121" ht="13" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="39">
+    <row r="51" spans="4:9" ht="13" customHeight="1">
+      <c r="D51" s="11"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="35"/>
+      <c r="I51" s="18">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="H22" s="18">
-        <f t="shared" si="112"/>
+    </row>
+    <row r="52" spans="4:9" ht="13" customHeight="1">
+      <c r="D52" s="11"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="35"/>
+      <c r="I52" s="18">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:121" ht="13" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="35">
-        <f t="shared" ref="F23" si="113">IF(C23="","",IF($D$5="OUI",WORKDAY(D23,IF(WEEKDAY(D23,2)&gt;=6,E23,E23-1)),D23+E23-1))</f>
-        <v>-1</v>
-      </c>
-      <c r="G23" s="39">
+    <row r="53" spans="4:9" ht="13" customHeight="1">
+      <c r="D53" s="11"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="35"/>
+      <c r="I53" s="18">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="H23" s="18">
-        <f t="shared" si="112"/>
+    </row>
+    <row r="54" spans="4:9" ht="13" customHeight="1">
+      <c r="D54" s="11"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="35"/>
+      <c r="I54" s="18">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:121" ht="13" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:121" ht="13" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:121" ht="13" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:121" ht="13" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:121" ht="13" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:121" s="2" customFormat="1" ht="13" customHeight="1">
-      <c r="A29" s="19">
-        <v>3</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="23"/>
-      <c r="AQ29" s="23"/>
-      <c r="AR29" s="23"/>
-      <c r="AS29" s="23"/>
-      <c r="AT29" s="23"/>
-      <c r="AU29" s="23"/>
-      <c r="AV29" s="23"/>
-      <c r="AW29" s="23"/>
-      <c r="AX29" s="23"/>
-      <c r="AY29" s="23"/>
-      <c r="AZ29" s="23"/>
-      <c r="BA29" s="23"/>
-      <c r="BB29" s="23"/>
-      <c r="BC29" s="23"/>
-      <c r="BD29" s="23"/>
-      <c r="BE29" s="23"/>
-      <c r="BF29" s="23"/>
-      <c r="BG29" s="23"/>
-      <c r="BH29" s="23"/>
-      <c r="BI29" s="23"/>
-      <c r="BJ29" s="23"/>
-      <c r="BK29" s="23"/>
-      <c r="BL29" s="23"/>
-      <c r="BM29" s="23"/>
-      <c r="BN29" s="23"/>
-      <c r="BO29" s="23"/>
-      <c r="BP29" s="23"/>
-      <c r="BQ29" s="23"/>
-      <c r="BR29" s="23"/>
-      <c r="BS29" s="23"/>
-      <c r="BT29" s="23"/>
-      <c r="BU29" s="23"/>
-      <c r="BV29" s="23"/>
-      <c r="BW29" s="23"/>
-      <c r="BX29" s="23"/>
-      <c r="BY29" s="23"/>
-      <c r="BZ29" s="23"/>
-      <c r="CA29" s="23"/>
-      <c r="CB29" s="23"/>
-      <c r="CC29" s="23"/>
-      <c r="CD29" s="23"/>
-      <c r="CE29" s="23"/>
-      <c r="CF29" s="23"/>
-      <c r="CG29" s="23"/>
-      <c r="CH29" s="23"/>
-      <c r="CI29" s="23"/>
-      <c r="CJ29" s="23"/>
-      <c r="CK29" s="23"/>
-      <c r="CL29" s="23"/>
-      <c r="CM29" s="23"/>
-      <c r="CN29" s="23"/>
-      <c r="CO29" s="23"/>
-      <c r="CP29" s="23"/>
-      <c r="CQ29" s="23"/>
-      <c r="CR29" s="23"/>
-      <c r="CS29" s="23"/>
-      <c r="CT29" s="23"/>
-      <c r="CU29" s="23"/>
-      <c r="CV29" s="23"/>
-      <c r="CW29" s="23"/>
-      <c r="CX29" s="23"/>
-      <c r="CY29" s="23"/>
-      <c r="CZ29" s="23"/>
-      <c r="DA29" s="23"/>
-      <c r="DB29" s="23"/>
-      <c r="DC29" s="23"/>
-      <c r="DD29" s="23"/>
-      <c r="DE29" s="23"/>
-      <c r="DF29" s="23"/>
-      <c r="DG29" s="23"/>
-      <c r="DH29" s="23"/>
-      <c r="DI29" s="23"/>
-      <c r="DJ29" s="23"/>
-      <c r="DK29" s="23"/>
-      <c r="DL29" s="23"/>
-      <c r="DM29" s="23"/>
-      <c r="DN29" s="23"/>
-      <c r="DO29" s="23"/>
-      <c r="DP29" s="23"/>
-      <c r="DQ29" s="23"/>
-    </row>
-    <row r="30" spans="1:121" ht="13" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="35">
-        <f>IF(C30="","",IF($D$5="OUI",WORKDAY(D30,IF(WEEKDAY(D30,2)&gt;=6,E30,E30-1)),D30+E30-1))</f>
-        <v>-1</v>
-      </c>
-      <c r="G30" s="39">
+    <row r="55" spans="4:9" ht="13" customHeight="1">
+      <c r="D55" s="11"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="35"/>
+      <c r="I55" s="18">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="H30" s="18">
-        <f t="shared" ref="H30:H32" si="114">D30+G30*(F30-D30)</f>
+    </row>
+    <row r="56" spans="4:9" ht="13" customHeight="1">
+      <c r="D56" s="11"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="35"/>
+      <c r="I56" s="18">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:121" ht="13" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="35">
-        <f t="shared" ref="F31:F32" si="115">IF(C31="","",IF($D$5="OUI",WORKDAY(D31,IF(WEEKDAY(D31,2)&gt;=6,E31,E31-1)),D31+E31-1))</f>
-        <v>-1</v>
-      </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="18">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:121" ht="13" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="35">
-        <f t="shared" si="115"/>
-        <v>-1</v>
-      </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
-      <c r="H32" s="18">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:121" ht="13" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="35" t="str">
-        <f t="shared" ref="F33" si="116">IF(C33="","",IF($D$5="OUI",WORKDAY(D33,IF(WEEKDAY(D33,2)&gt;=6,E33,E33-1)),D33+E33-1))</f>
-        <v/>
-      </c>
-      <c r="G33" s="39">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18" t="e">
-        <f t="shared" ref="H33:H45" si="117">D33+G33*(F33-D33)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:121" s="2" customFormat="1" ht="13" customHeight="1">
-      <c r="A34" s="19">
-        <v>4</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
-      <c r="AQ34" s="23"/>
-      <c r="AR34" s="23"/>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="23"/>
-      <c r="AU34" s="23"/>
-      <c r="AV34" s="23"/>
-      <c r="AW34" s="23"/>
-      <c r="AX34" s="23"/>
-      <c r="AY34" s="23"/>
-      <c r="AZ34" s="23"/>
-      <c r="BA34" s="23"/>
-      <c r="BB34" s="23"/>
-      <c r="BC34" s="23"/>
-      <c r="BD34" s="23"/>
-      <c r="BE34" s="23"/>
-      <c r="BF34" s="23"/>
-      <c r="BG34" s="23"/>
-      <c r="BH34" s="23"/>
-      <c r="BI34" s="23"/>
-      <c r="BJ34" s="23"/>
-      <c r="BK34" s="23"/>
-      <c r="BL34" s="23"/>
-      <c r="BM34" s="23"/>
-      <c r="BN34" s="23"/>
-      <c r="BO34" s="23"/>
-      <c r="BP34" s="23"/>
-      <c r="BQ34" s="23"/>
-      <c r="BR34" s="23"/>
-      <c r="BS34" s="23"/>
-      <c r="BT34" s="23"/>
-      <c r="BU34" s="23"/>
-      <c r="BV34" s="23"/>
-      <c r="BW34" s="23"/>
-      <c r="BX34" s="23"/>
-      <c r="BY34" s="23"/>
-      <c r="BZ34" s="23"/>
-      <c r="CA34" s="23"/>
-      <c r="CB34" s="23"/>
-      <c r="CC34" s="23"/>
-      <c r="CD34" s="23"/>
-      <c r="CE34" s="23"/>
-      <c r="CF34" s="23"/>
-      <c r="CG34" s="23"/>
-      <c r="CH34" s="23"/>
-      <c r="CI34" s="23"/>
-      <c r="CJ34" s="23"/>
-      <c r="CK34" s="23"/>
-      <c r="CL34" s="23"/>
-      <c r="CM34" s="23"/>
-      <c r="CN34" s="23"/>
-      <c r="CO34" s="23"/>
-      <c r="CP34" s="23"/>
-      <c r="CQ34" s="23"/>
-      <c r="CR34" s="23"/>
-      <c r="CS34" s="23"/>
-      <c r="CT34" s="23"/>
-      <c r="CU34" s="23"/>
-      <c r="CV34" s="23"/>
-      <c r="CW34" s="23"/>
-      <c r="CX34" s="23"/>
-      <c r="CY34" s="23"/>
-      <c r="CZ34" s="23"/>
-      <c r="DA34" s="23"/>
-      <c r="DB34" s="23"/>
-      <c r="DC34" s="23"/>
-      <c r="DD34" s="23"/>
-      <c r="DE34" s="23"/>
-      <c r="DF34" s="23"/>
-      <c r="DG34" s="23"/>
-      <c r="DH34" s="23"/>
-      <c r="DI34" s="23"/>
-      <c r="DJ34" s="23"/>
-      <c r="DK34" s="23"/>
-      <c r="DL34" s="23"/>
-      <c r="DM34" s="23"/>
-      <c r="DN34" s="23"/>
-      <c r="DO34" s="23"/>
-      <c r="DP34" s="23"/>
-      <c r="DQ34" s="23"/>
-    </row>
-    <row r="35" spans="1:121" ht="13" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="35">
-        <f>IF(C35="","",IF($D$5="OUI",WORKDAY(D35,IF(WEEKDAY(D35,2)&gt;=6,E35,E35-1)),D35+E35-1))</f>
-        <v>-1</v>
-      </c>
-      <c r="G35" s="39">
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
-        <f t="shared" ref="H35:H37" si="118">D35+G35*(F35-D35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:121" ht="13" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="35" t="str">
-        <f t="shared" ref="F36:F37" si="119">IF(C36="","",IF($D$5="OUI",WORKDAY(D36,IF(WEEKDAY(D36,2)&gt;=6,E36,E36-1)),D36+E36-1))</f>
-        <v/>
-      </c>
-      <c r="G36" s="39">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18" t="e">
-        <f t="shared" si="118"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:121" ht="13" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="35" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="G37" s="39">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18" t="e">
-        <f t="shared" si="118"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:121" ht="13" customHeight="1">
-      <c r="C38" s="11"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="35"/>
-      <c r="H38" s="18">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:121" ht="13" customHeight="1">
-      <c r="C39" s="11"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="35"/>
-      <c r="H39" s="18">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:121" ht="13" customHeight="1">
-      <c r="C40" s="11"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="35"/>
-      <c r="H40" s="18">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:121" ht="13" customHeight="1">
-      <c r="C41" s="11"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="35"/>
-      <c r="H41" s="18">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:121" ht="13" customHeight="1">
-      <c r="C42" s="11"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="35"/>
-      <c r="H42" s="18">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:121" ht="13" customHeight="1">
-      <c r="C43" s="11"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="35"/>
-      <c r="H43" s="18">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:121" ht="13" customHeight="1">
-      <c r="C44" s="11"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="35"/>
-      <c r="H44" s="18">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:121" ht="13" customHeight="1">
-      <c r="C45" s="11"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="35"/>
-      <c r="H45" s="18">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:121" ht="13" customHeight="1">
-      <c r="F46" s="35" t="str">
-        <f t="shared" ref="F46:F80" si="120">IF(C46="","",IF($D$5="OUI",WORKDAY(D46,IF(WEEKDAY(D46,2)&gt;=6,E46,E46-1)),D46+E46-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:121" ht="13" customHeight="1">
-      <c r="F47" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:121" ht="13" customHeight="1">
-      <c r="F48" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="6:6" ht="13" customHeight="1">
-      <c r="F49" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="6:6" ht="13" customHeight="1">
-      <c r="F50" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="6:6" ht="13" customHeight="1">
-      <c r="F51" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="6:6" ht="13" customHeight="1">
-      <c r="F52" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="6:6" ht="13" customHeight="1">
-      <c r="F53" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="6:6" ht="13" customHeight="1">
-      <c r="F54" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="6:6" ht="13" customHeight="1">
-      <c r="F55" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="6:6" ht="13" customHeight="1">
-      <c r="F56" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="6:6" ht="13" customHeight="1">
-      <c r="F57" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="6:6" ht="13" customHeight="1">
-      <c r="F58" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="6:6" ht="13" customHeight="1">
-      <c r="F59" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="6:6" ht="13" customHeight="1">
-      <c r="F60" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="6:6" ht="13" customHeight="1">
-      <c r="F61" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="6:6" ht="13" customHeight="1">
-      <c r="F62" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="6:6" ht="13" customHeight="1">
-      <c r="F63" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="6:6" ht="13" customHeight="1">
-      <c r="F64" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="6:6" ht="13" customHeight="1">
-      <c r="F65" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="6:6" ht="13" customHeight="1">
-      <c r="F66" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="6:6" ht="13" customHeight="1">
-      <c r="F67" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="6:6" ht="13" customHeight="1">
-      <c r="F68" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="6:6" ht="13" customHeight="1">
-      <c r="F69" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="6:6" ht="13" customHeight="1">
-      <c r="F70" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="6:6" ht="13" customHeight="1">
-      <c r="F71" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="6:6" ht="13" customHeight="1">
-      <c r="F72" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="6:6" ht="13" customHeight="1">
-      <c r="F73" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="6:6" ht="13" customHeight="1">
-      <c r="F74" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="6:6" ht="13" customHeight="1">
-      <c r="F75" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="6:6" ht="13" customHeight="1">
-      <c r="F76" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="6:6" ht="13" customHeight="1">
-      <c r="F77" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="6:6" ht="13" customHeight="1">
-      <c r="F78" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="6:6" ht="13" customHeight="1">
-      <c r="F79" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="6:6" ht="13" customHeight="1">
-      <c r="F80" s="35" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="6:6" ht="13" customHeight="1">
-      <c r="F81" s="35" t="str">
-        <f t="shared" ref="F81:F103" si="121">IF(C81="","",IF($D$5="OUI",WORKDAY(D81,IF(WEEKDAY(D81,2)&gt;=6,E81,E81-1)),D81+E81-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="6:6" ht="13" customHeight="1">
-      <c r="F82" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="6:6" ht="13" customHeight="1">
-      <c r="F83" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="6:6" ht="13" customHeight="1">
-      <c r="F84" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="6:6" ht="13" customHeight="1">
-      <c r="F85" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="6:6" ht="13" customHeight="1">
-      <c r="F86" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="6:6" ht="13" customHeight="1">
-      <c r="F87" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="6:6" ht="13" customHeight="1">
-      <c r="F88" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="6:6" ht="13" customHeight="1">
-      <c r="F89" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="6:6" ht="13" customHeight="1">
-      <c r="F90" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="6:6" ht="13" customHeight="1">
-      <c r="F91" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="6:6" ht="13" customHeight="1">
-      <c r="F92" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="6:6" ht="13" customHeight="1">
-      <c r="F93" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="6:6" ht="13" customHeight="1">
-      <c r="F94" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="6:6" ht="13" customHeight="1">
-      <c r="F95" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="6:6" ht="13" customHeight="1">
-      <c r="F96" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="6:6" ht="13" customHeight="1">
-      <c r="F97" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="6:6">
-      <c r="F98" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="6:6">
-      <c r="F99" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="6:6">
-      <c r="F100" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="6:6">
-      <c r="F101" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="6:6">
-      <c r="F102" s="35" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="6:6">
-      <c r="F103" s="35" t="str">
-        <f t="shared" si="121"/>
+    <row r="57" spans="4:9" ht="13" customHeight="1">
+      <c r="G57" s="35" t="str">
+        <f>IF(D57="","",IF($E$5="OUI",WORKDAY(E57,IF(WEEKDAY(E57,2)&gt;=6,F57,F57-1)),E57+F57-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="4:9" ht="13" customHeight="1">
+      <c r="G58" s="35" t="str">
+        <f>IF(D58="","",IF($E$5="OUI",WORKDAY(E58,IF(WEEKDAY(E58,2)&gt;=6,F58,F58-1)),E58+F58-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="4:9" ht="13" customHeight="1">
+      <c r="G59" s="35" t="str">
+        <f>IF(D59="","",IF($E$5="OUI",WORKDAY(E59,IF(WEEKDAY(E59,2)&gt;=6,F59,F59-1)),E59+F59-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="4:9" ht="13" customHeight="1">
+      <c r="G60" s="35" t="str">
+        <f>IF(D60="","",IF($E$5="OUI",WORKDAY(E60,IF(WEEKDAY(E60,2)&gt;=6,F60,F60-1)),E60+F60-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="4:9" ht="13" customHeight="1">
+      <c r="G61" s="35" t="str">
+        <f>IF(D61="","",IF($E$5="OUI",WORKDAY(E61,IF(WEEKDAY(E61,2)&gt;=6,F61,F61-1)),E61+F61-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="4:9" ht="13" customHeight="1">
+      <c r="G62" s="35" t="str">
+        <f>IF(D62="","",IF($E$5="OUI",WORKDAY(E62,IF(WEEKDAY(E62,2)&gt;=6,F62,F62-1)),E62+F62-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="4:9" ht="13" customHeight="1">
+      <c r="G63" s="35" t="str">
+        <f>IF(D63="","",IF($E$5="OUI",WORKDAY(E63,IF(WEEKDAY(E63,2)&gt;=6,F63,F63-1)),E63+F63-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="4:9" ht="13" customHeight="1">
+      <c r="G64" s="35" t="str">
+        <f>IF(D64="","",IF($E$5="OUI",WORKDAY(E64,IF(WEEKDAY(E64,2)&gt;=6,F64,F64-1)),E64+F64-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="7:7" ht="13" customHeight="1">
+      <c r="G65" s="35" t="str">
+        <f>IF(D65="","",IF($E$5="OUI",WORKDAY(E65,IF(WEEKDAY(E65,2)&gt;=6,F65,F65-1)),E65+F65-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="7:7" ht="13" customHeight="1">
+      <c r="G66" s="35" t="str">
+        <f>IF(D66="","",IF($E$5="OUI",WORKDAY(E66,IF(WEEKDAY(E66,2)&gt;=6,F66,F66-1)),E66+F66-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="7:7" ht="13" customHeight="1">
+      <c r="G67" s="35" t="str">
+        <f>IF(D67="","",IF($E$5="OUI",WORKDAY(E67,IF(WEEKDAY(E67,2)&gt;=6,F67,F67-1)),E67+F67-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="7:7" ht="13" customHeight="1">
+      <c r="G68" s="35" t="str">
+        <f>IF(D68="","",IF($E$5="OUI",WORKDAY(E68,IF(WEEKDAY(E68,2)&gt;=6,F68,F68-1)),E68+F68-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="7:7" ht="13" customHeight="1">
+      <c r="G69" s="35" t="str">
+        <f>IF(D69="","",IF($E$5="OUI",WORKDAY(E69,IF(WEEKDAY(E69,2)&gt;=6,F69,F69-1)),E69+F69-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="7:7" ht="13" customHeight="1">
+      <c r="G70" s="35" t="str">
+        <f>IF(D70="","",IF($E$5="OUI",WORKDAY(E70,IF(WEEKDAY(E70,2)&gt;=6,F70,F70-1)),E70+F70-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="7:7" ht="13" customHeight="1">
+      <c r="G71" s="35" t="str">
+        <f>IF(D71="","",IF($E$5="OUI",WORKDAY(E71,IF(WEEKDAY(E71,2)&gt;=6,F71,F71-1)),E71+F71-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="7:7" ht="13" customHeight="1">
+      <c r="G72" s="35" t="str">
+        <f>IF(D72="","",IF($E$5="OUI",WORKDAY(E72,IF(WEEKDAY(E72,2)&gt;=6,F72,F72-1)),E72+F72-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="7:7" ht="13" customHeight="1">
+      <c r="G73" s="35" t="str">
+        <f>IF(D73="","",IF($E$5="OUI",WORKDAY(E73,IF(WEEKDAY(E73,2)&gt;=6,F73,F73-1)),E73+F73-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="7:7" ht="13" customHeight="1">
+      <c r="G74" s="35" t="str">
+        <f>IF(D74="","",IF($E$5="OUI",WORKDAY(E74,IF(WEEKDAY(E74,2)&gt;=6,F74,F74-1)),E74+F74-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="7:7" ht="13" customHeight="1">
+      <c r="G75" s="35" t="str">
+        <f>IF(D75="","",IF($E$5="OUI",WORKDAY(E75,IF(WEEKDAY(E75,2)&gt;=6,F75,F75-1)),E75+F75-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="7:7" ht="13" customHeight="1">
+      <c r="G76" s="35" t="str">
+        <f>IF(D76="","",IF($E$5="OUI",WORKDAY(E76,IF(WEEKDAY(E76,2)&gt;=6,F76,F76-1)),E76+F76-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="7:7" ht="13" customHeight="1">
+      <c r="G77" s="35" t="str">
+        <f>IF(D77="","",IF($E$5="OUI",WORKDAY(E77,IF(WEEKDAY(E77,2)&gt;=6,F77,F77-1)),E77+F77-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="7:7" ht="13" customHeight="1">
+      <c r="G78" s="35" t="str">
+        <f>IF(D78="","",IF($E$5="OUI",WORKDAY(E78,IF(WEEKDAY(E78,2)&gt;=6,F78,F78-1)),E78+F78-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="7:7" ht="13" customHeight="1">
+      <c r="G79" s="35" t="str">
+        <f>IF(D79="","",IF($E$5="OUI",WORKDAY(E79,IF(WEEKDAY(E79,2)&gt;=6,F79,F79-1)),E79+F79-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="7:7" ht="13" customHeight="1">
+      <c r="G80" s="35" t="str">
+        <f>IF(D80="","",IF($E$5="OUI",WORKDAY(E80,IF(WEEKDAY(E80,2)&gt;=6,F80,F80-1)),E80+F80-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="7:7" ht="13" customHeight="1">
+      <c r="G81" s="35" t="str">
+        <f>IF(D81="","",IF($E$5="OUI",WORKDAY(E81,IF(WEEKDAY(E81,2)&gt;=6,F81,F81-1)),E81+F81-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="7:7" ht="13" customHeight="1">
+      <c r="G82" s="35" t="str">
+        <f>IF(D82="","",IF($E$5="OUI",WORKDAY(E82,IF(WEEKDAY(E82,2)&gt;=6,F82,F82-1)),E82+F82-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="7:7" ht="13" customHeight="1">
+      <c r="G83" s="35" t="str">
+        <f>IF(D83="","",IF($E$5="OUI",WORKDAY(E83,IF(WEEKDAY(E83,2)&gt;=6,F83,F83-1)),E83+F83-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="7:7" ht="13" customHeight="1">
+      <c r="G84" s="35" t="str">
+        <f>IF(D84="","",IF($E$5="OUI",WORKDAY(E84,IF(WEEKDAY(E84,2)&gt;=6,F84,F84-1)),E84+F84-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="7:7" ht="13" customHeight="1">
+      <c r="G85" s="35" t="str">
+        <f>IF(D85="","",IF($E$5="OUI",WORKDAY(E85,IF(WEEKDAY(E85,2)&gt;=6,F85,F85-1)),E85+F85-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="7:7" ht="13" customHeight="1">
+      <c r="G86" s="35" t="str">
+        <f>IF(D86="","",IF($E$5="OUI",WORKDAY(E86,IF(WEEKDAY(E86,2)&gt;=6,F86,F86-1)),E86+F86-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="7:7" ht="13" customHeight="1">
+      <c r="G87" s="35" t="str">
+        <f>IF(D87="","",IF($E$5="OUI",WORKDAY(E87,IF(WEEKDAY(E87,2)&gt;=6,F87,F87-1)),E87+F87-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="7:7" ht="13" customHeight="1">
+      <c r="G88" s="35" t="str">
+        <f>IF(D88="","",IF($E$5="OUI",WORKDAY(E88,IF(WEEKDAY(E88,2)&gt;=6,F88,F88-1)),E88+F88-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="7:7" ht="13" customHeight="1">
+      <c r="G89" s="35" t="str">
+        <f>IF(D89="","",IF($E$5="OUI",WORKDAY(E89,IF(WEEKDAY(E89,2)&gt;=6,F89,F89-1)),E89+F89-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="7:7" ht="13" customHeight="1">
+      <c r="G90" s="35" t="str">
+        <f>IF(D90="","",IF($E$5="OUI",WORKDAY(E90,IF(WEEKDAY(E90,2)&gt;=6,F90,F90-1)),E90+F90-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="7:7" ht="13" customHeight="1">
+      <c r="G91" s="35" t="str">
+        <f>IF(D91="","",IF($E$5="OUI",WORKDAY(E91,IF(WEEKDAY(E91,2)&gt;=6,F91,F91-1)),E91+F91-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="7:7" ht="13" customHeight="1">
+      <c r="G92" s="35" t="str">
+        <f>IF(D92="","",IF($E$5="OUI",WORKDAY(E92,IF(WEEKDAY(E92,2)&gt;=6,F92,F92-1)),E92+F92-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="7:7" ht="13" customHeight="1">
+      <c r="G93" s="35" t="str">
+        <f>IF(D93="","",IF($E$5="OUI",WORKDAY(E93,IF(WEEKDAY(E93,2)&gt;=6,F93,F93-1)),E93+F93-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="7:7" ht="13" customHeight="1">
+      <c r="G94" s="35" t="str">
+        <f>IF(D94="","",IF($E$5="OUI",WORKDAY(E94,IF(WEEKDAY(E94,2)&gt;=6,F94,F94-1)),E94+F94-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="7:7" ht="13" customHeight="1">
+      <c r="G95" s="35" t="str">
+        <f>IF(D95="","",IF($E$5="OUI",WORKDAY(E95,IF(WEEKDAY(E95,2)&gt;=6,F95,F95-1)),E95+F95-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="7:7" ht="13" customHeight="1">
+      <c r="G96" s="35" t="str">
+        <f>IF(D96="","",IF($E$5="OUI",WORKDAY(E96,IF(WEEKDAY(E96,2)&gt;=6,F96,F96-1)),E96+F96-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="7:7" ht="13" customHeight="1">
+      <c r="G97" s="35" t="str">
+        <f>IF(D97="","",IF($E$5="OUI",WORKDAY(E97,IF(WEEKDAY(E97,2)&gt;=6,F97,F97-1)),E97+F97-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="7:7" ht="13" customHeight="1">
+      <c r="G98" s="35" t="str">
+        <f>IF(D98="","",IF($E$5="OUI",WORKDAY(E98,IF(WEEKDAY(E98,2)&gt;=6,F98,F98-1)),E98+F98-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="7:7" ht="13" customHeight="1">
+      <c r="G99" s="35" t="str">
+        <f>IF(D99="","",IF($E$5="OUI",WORKDAY(E99,IF(WEEKDAY(E99,2)&gt;=6,F99,F99-1)),E99+F99-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="7:7" ht="13" customHeight="1">
+      <c r="G100" s="35" t="str">
+        <f>IF(D100="","",IF($E$5="OUI",WORKDAY(E100,IF(WEEKDAY(E100,2)&gt;=6,F100,F100-1)),E100+F100-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="7:7" ht="13" customHeight="1">
+      <c r="G101" s="35" t="str">
+        <f>IF(D101="","",IF($E$5="OUI",WORKDAY(E101,IF(WEEKDAY(E101,2)&gt;=6,F101,F101-1)),E101+F101-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="7:7" ht="13" customHeight="1">
+      <c r="G102" s="35" t="str">
+        <f>IF(D102="","",IF($E$5="OUI",WORKDAY(E102,IF(WEEKDAY(E102,2)&gt;=6,F102,F102-1)),E102+F102-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="7:7" ht="13" customHeight="1">
+      <c r="G103" s="35" t="str">
+        <f>IF(D103="","",IF($E$5="OUI",WORKDAY(E103,IF(WEEKDAY(E103,2)&gt;=6,F103,F103-1)),E103+F103-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="7:7" ht="13" customHeight="1">
+      <c r="G104" s="35" t="str">
+        <f>IF(D104="","",IF($E$5="OUI",WORKDAY(E104,IF(WEEKDAY(E104,2)&gt;=6,F104,F104-1)),E104+F104-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="7:7" ht="13" customHeight="1">
+      <c r="G105" s="35" t="str">
+        <f>IF(D105="","",IF($E$5="OUI",WORKDAY(E105,IF(WEEKDAY(E105,2)&gt;=6,F105,F105-1)),E105+F105-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="7:7" ht="13" customHeight="1">
+      <c r="G106" s="35" t="str">
+        <f>IF(D106="","",IF($E$5="OUI",WORKDAY(E106,IF(WEEKDAY(E106,2)&gt;=6,F106,F106-1)),E106+F106-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="7:7" ht="13" customHeight="1">
+      <c r="G107" s="35" t="str">
+        <f>IF(D107="","",IF($E$5="OUI",WORKDAY(E107,IF(WEEKDAY(E107,2)&gt;=6,F107,F107-1)),E107+F107-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="7:7" ht="13" customHeight="1">
+      <c r="G108" s="35" t="str">
+        <f>IF(D108="","",IF($E$5="OUI",WORKDAY(E108,IF(WEEKDAY(E108,2)&gt;=6,F108,F108-1)),E108+F108-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="7:7">
+      <c r="G109" s="35" t="str">
+        <f>IF(D109="","",IF($E$5="OUI",WORKDAY(E109,IF(WEEKDAY(E109,2)&gt;=6,F109,F109-1)),E109+F109-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="7:7">
+      <c r="G110" s="35" t="str">
+        <f>IF(D110="","",IF($E$5="OUI",WORKDAY(E110,IF(WEEKDAY(E110,2)&gt;=6,F110,F110-1)),E110+F110-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="7:7">
+      <c r="G111" s="35" t="str">
+        <f>IF(D111="","",IF($E$5="OUI",WORKDAY(E111,IF(WEEKDAY(E111,2)&gt;=6,F111,F111-1)),E111+F111-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="7:7">
+      <c r="G112" s="35" t="str">
+        <f>IF(D112="","",IF($E$5="OUI",WORKDAY(E112,IF(WEEKDAY(E112,2)&gt;=6,F112,F112-1)),E112+F112-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="7:7">
+      <c r="G113" s="35" t="str">
+        <f>IF(D113="","",IF($E$5="OUI",WORKDAY(E113,IF(WEEKDAY(E113,2)&gt;=6,F113,F113-1)),E113+F113-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="7:7">
+      <c r="G114" s="35" t="str">
+        <f>IF(D114="","",IF($E$5="OUI",WORKDAY(E114,IF(WEEKDAY(E114,2)&gt;=6,F114,F114-1)),E114+F114-1))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
-  <conditionalFormatting sqref="I8:DQ8">
-    <cfRule type="expression" dxfId="20" priority="12">
-      <formula>I8&lt;&gt;""</formula>
+  <conditionalFormatting sqref="J8:DR8">
+    <cfRule type="expression" dxfId="75" priority="37">
+      <formula>J8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:ET7">
-    <cfRule type="expression" dxfId="19" priority="11">
-      <formula>J10&lt;&gt;1</formula>
+  <conditionalFormatting sqref="K7:EU7">
+    <cfRule type="expression" dxfId="74" priority="36">
+      <formula>K10&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:ET7 J8:DQ10">
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>J$10=1</formula>
+  <conditionalFormatting sqref="K7:EU7 K8:DR10">
+    <cfRule type="expression" dxfId="73" priority="34">
+      <formula>K$10=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G106 G11:G20">
-    <cfRule type="expression" dxfId="17" priority="3">
-      <formula>$C11&lt;&gt;""</formula>
+  <conditionalFormatting sqref="H11:H18 H39 I45:DN45 H41:H117">
+    <cfRule type="expression" dxfId="72" priority="28">
+      <formula>$D11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BP20 I23:BP103 I7:ET7 I8:DQ9 BQ10:DQ11 BQ20:DQ20 BQ29:DQ29 BQ34:DQ34 I10:BP17">
-    <cfRule type="expression" dxfId="16" priority="25">
-      <formula>AND(I$7=$H$2,$C7&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="J36:BQ36">
+    <cfRule type="expression" dxfId="71" priority="60">
+      <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BP20 I23:BP103 BQ20:DQ20 BQ29:DQ29 BQ34:DQ34 I12:BP17">
-    <cfRule type="expression" dxfId="15" priority="26" stopIfTrue="1">
-      <formula>$C12=""</formula>
+  <conditionalFormatting sqref="J36:BQ36">
+    <cfRule type="expression" dxfId="70" priority="69" stopIfTrue="1">
+      <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="27">
-      <formula>AND(I$7&gt;=$D12,I$7&lt;=$F12,I$7&lt;=$H12,$G12&gt;0)</formula>
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>AND(J$7&gt;=$E36,J$7&lt;=$G36,J$7&lt;=$I36,$H36&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="28">
-      <formula>AND(I$7&gt;=$D12,I$7&lt;=$F12,I$7&gt;=$H12,I$7&gt;=TODAY())</formula>
+    <cfRule type="expression" dxfId="68" priority="71">
+      <formula>AND(J$7&gt;=$E36,J$7&lt;=$G36,J$7&gt;=$I36,J$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="29">
-      <formula>AND(I$7&gt;=$D12,I$7&lt;=$F12,I$7&gt;=$H12)</formula>
+    <cfRule type="expression" dxfId="67" priority="72">
+      <formula>AND(J$7&gt;=$E36,J$7&lt;=$G36,J$7&gt;=$I36)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="11" priority="32">
+  <conditionalFormatting sqref="H19:H33 H36 H40">
+    <cfRule type="expression" dxfId="66" priority="90">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BP22 I18:BP18">
-    <cfRule type="expression" dxfId="10" priority="35">
-      <formula>AND(I$7=$H$2,#REF!&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="J19:BQ19">
+    <cfRule type="expression" dxfId="65" priority="91">
+      <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BP22 I18:BP18">
-    <cfRule type="expression" dxfId="9" priority="44" stopIfTrue="1">
+  <conditionalFormatting sqref="J19:BQ19">
+    <cfRule type="expression" dxfId="64" priority="127" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="45">
-      <formula>AND(I$7&gt;=$D18,I$7&lt;=$F18,I$7&lt;=$H18,$G18&gt;0)</formula>
+    <cfRule type="expression" dxfId="63" priority="128">
+      <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&lt;=$I19,$H19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="46">
-      <formula>AND(I$7&gt;=$D18,I$7&lt;=$F18,I$7&gt;=$H18,I$7&gt;=TODAY())</formula>
+    <cfRule type="expression" dxfId="62" priority="129">
+      <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&gt;=$I19,J$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="47">
-      <formula>AND(I$7&gt;=$D18,I$7&lt;=$F18,I$7&gt;=$H18)</formula>
+    <cfRule type="expression" dxfId="61" priority="130">
+      <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&gt;=$I19)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="5" priority="65">
-      <formula>$C18&lt;&gt;""</formula>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="60" priority="192">
+      <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BP21">
-    <cfRule type="expression" dxfId="4" priority="66">
-      <formula>AND(I$7=$H$2,$C18&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="J37:BQ37">
+    <cfRule type="expression" dxfId="59" priority="194">
+      <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BP21">
-    <cfRule type="expression" dxfId="3" priority="67" stopIfTrue="1">
-      <formula>$C18=""</formula>
+  <conditionalFormatting sqref="J37:BQ37">
+    <cfRule type="expression" dxfId="58" priority="201" stopIfTrue="1">
+      <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="68">
-      <formula>AND(I$7&gt;=$D21,I$7&lt;=$F21,I$7&lt;=$H21,$G21&gt;0)</formula>
+    <cfRule type="expression" dxfId="57" priority="202">
+      <formula>AND(J$7&gt;=$E37,J$7&lt;=$G37,J$7&lt;=$I37,$H37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="69">
-      <formula>AND(I$7&gt;=$D21,I$7&lt;=$F21,I$7&gt;=$H21,I$7&gt;=TODAY())</formula>
+    <cfRule type="expression" dxfId="56" priority="203">
+      <formula>AND(J$7&gt;=$E37,J$7&lt;=$G37,J$7&gt;=$I37,J$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="70">
-      <formula>AND(I$7&gt;=$D21,I$7&lt;=$F21,I$7&gt;=$H21)</formula>
+    <cfRule type="expression" dxfId="55" priority="204">
+      <formula>AND(J$7&gt;=$E37,J$7&lt;=$G37,J$7&gt;=$I37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:EU7 J8:DR9 BR10:DR11 J10:BQ17 J18:DR18 BR41:DR41 J39:BQ39 DO45:DR45 J46:BQ114 J41:BQ44">
+    <cfRule type="expression" dxfId="54" priority="205">
+      <formula>AND(J$7=$I$2,$D7&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:BQ17 J18:DR18 BR41:DR41 J39:BQ39 DO45:DR45 J46:BQ114 J41:BQ44">
+    <cfRule type="expression" dxfId="53" priority="214" stopIfTrue="1">
+      <formula>$D12=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="215">
+      <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&lt;=$I12,$H12&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="216">
+      <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&gt;=$I12,J$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="217">
+      <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&gt;=$I12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB40:BC40">
+    <cfRule type="expression" dxfId="49" priority="21">
+      <formula>AND(BB$7=$I$2,#REF!&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB40:BC40">
+    <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="23">
+      <formula>AND(BB$7&gt;=$E40,BB$7&lt;=$G40,BB$7&lt;=$I40,$H40&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="24">
+      <formula>AND(BB$7&gt;=$E40,BB$7&lt;=$G40,BB$7&gt;=$I40,BB$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="25">
+      <formula>AND(BB$7&gt;=$E40,BB$7&lt;=$G40,BB$7&gt;=$I40)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV33:AY33">
+    <cfRule type="expression" dxfId="39" priority="16">
+      <formula>AND(AV$7=$I$2,#REF!&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV33:AY33">
+    <cfRule type="expression" dxfId="37" priority="17" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="18">
+      <formula>AND(AV$7&gt;=$E33,AV$7&lt;=$G33,AV$7&lt;=$I33,$H33&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="19">
+      <formula>AND(AV$7&gt;=$E33,AV$7&lt;=$G33,AV$7&gt;=$I33,AV$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="20">
+      <formula>AND(AV$7&gt;=$E33,AV$7&lt;=$G33,AV$7&gt;=$I33)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN30:AQ30">
+    <cfRule type="expression" dxfId="29" priority="11">
+      <formula>AND(AN$7=$I$2,#REF!&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN30:AQ30">
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="13">
+      <formula>AND(AN$7&gt;=$E30,AN$7&lt;=$G30,AN$7&lt;=$I30,$H30&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="14">
+      <formula>AND(AN$7&gt;=$E30,AN$7&lt;=$G30,AN$7&gt;=$I30,AN$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="15">
+      <formula>AND(AN$7&gt;=$E30,AN$7&lt;=$G30,AN$7&gt;=$I30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24:AL24">
+    <cfRule type="expression" dxfId="19" priority="6">
+      <formula>AND(AK$7=$I$2,#REF!&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24:AL24">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>AND(AK$7&gt;=$E24,AK$7&lt;=$G24,AK$7&lt;=$I24,$H24&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>AND(AK$7&gt;=$E24,AK$7&lt;=$G24,AK$7&gt;=$I24,AK$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>AND(AK$7&gt;=$E24,AK$7&lt;=$G24,AK$7&gt;=$I24)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH44:CW44">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>AND(CH$7=$I$2,#REF!&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH44:CW44">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>AND(CH$7&gt;=$E44,CH$7&lt;=$G44,CH$7&lt;=$I44,$H44&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(CH$7&gt;=$E44,CH$7&lt;=$G44,CH$7&gt;=$I44,CH$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(CH$7&gt;=$E44,CH$7&lt;=$G44,CH$7&gt;=$I44)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:G5">
       <formula1>ouinon</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4774,13 +5820,13 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>67</xdr:col>
+                    <xdr:col>68</xdr:col>
                     <xdr:colOff>177800</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>165100</xdr:rowOff>

--- a/Template planning.xlsx
+++ b/Template planning.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="ouinon">Table!$D$1:$D$2</definedName>
     <definedName name="semaine">Table!$A$1:$B$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$BQ$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$BQ$71</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>Projet</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>2S,1M</t>
+  </si>
+  <si>
+    <t>SIMPLE</t>
+  </si>
+  <si>
+    <t>Développement de l'IHM "MESSAGE D'ERREUR"</t>
   </si>
 </sst>
 </file>
@@ -709,17 +715,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -760,17 +766,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
@@ -811,35 +817,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="31">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -887,292 +873,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
     </dxf>
     <dxf>
       <border>
@@ -1229,35 +929,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
     </dxf>
     <dxf>
       <border>
@@ -1761,11 +1432,11 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EU114"/>
+  <dimension ref="A1:EU115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CQ41" sqref="CQ41"/>
+      <pane ySplit="10" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2914,19 +2585,19 @@
       <c r="A9" s="8"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="61" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="17"/>
@@ -3387,11 +3058,11 @@
       <c r="A10" s="8"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="17"/>
       <c r="J10" s="10">
         <f>DAY(J7)</f>
@@ -3993,14 +3664,14 @@
         <v>7</v>
       </c>
       <c r="G12" s="35">
-        <f>IF(D12="","",IF($E$5="OUI",WORKDAY(E12,IF(WEEKDAY(E12,2)&gt;=6,F12,F12-1)),E12+F12-1))</f>
+        <f t="shared" ref="G12:G17" si="109">IF(D12="","",IF($E$5="OUI",WORKDAY(E12,IF(WEEKDAY(E12,2)&gt;=6,F12,F12-1)),E12+F12-1))</f>
         <v>42498</v>
       </c>
       <c r="H12" s="39">
         <v>0</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" ref="I12" si="109">E12+H12*(G12-E12)</f>
+        <f t="shared" ref="I12" si="110">E12+H12*(G12-E12)</f>
         <v>42492</v>
       </c>
     </row>
@@ -4021,14 +3692,14 @@
         <v>1</v>
       </c>
       <c r="G13" s="35">
-        <f>IF(D13="","",IF($E$5="OUI",WORKDAY(E13,IF(WEEKDAY(E13,2)&gt;=6,F13,F13-1)),E13+F13-1))</f>
+        <f t="shared" si="109"/>
         <v>42485</v>
       </c>
       <c r="H13" s="39">
         <v>1</v>
       </c>
       <c r="I13" s="18">
-        <f t="shared" ref="I13:I14" si="110">E13+H13*(G13-E13)</f>
+        <f t="shared" ref="I13:I14" si="111">E13+H13*(G13-E13)</f>
         <v>42485</v>
       </c>
     </row>
@@ -4049,14 +3720,14 @@
         <v>2</v>
       </c>
       <c r="G14" s="35">
-        <f>IF(D14="","",IF($E$5="OUI",WORKDAY(E14,IF(WEEKDAY(E14,2)&gt;=6,F14,F14-1)),E14+F14-1))</f>
+        <f t="shared" si="109"/>
         <v>42486</v>
       </c>
       <c r="H14" s="39">
         <v>1</v>
       </c>
       <c r="I14" s="18">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>42486</v>
       </c>
     </row>
@@ -4077,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="35">
-        <f>IF(D15="","",IF($E$5="OUI",WORKDAY(E15,IF(WEEKDAY(E15,2)&gt;=6,F15,F15-1)),E15+F15-1))</f>
+        <f t="shared" si="109"/>
         <v>42486</v>
       </c>
       <c r="H15" s="39">
@@ -4102,7 +3773,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="35">
-        <f>IF(D16="","",IF($E$5="OUI",WORKDAY(E16,IF(WEEKDAY(E16,2)&gt;=6,F16,F16-1)),E16+F16-1))</f>
+        <f t="shared" si="109"/>
         <v>42505</v>
       </c>
       <c r="H16" s="39">
@@ -4120,7 +3791,7 @@
       <c r="E17" s="31"/>
       <c r="F17" s="12"/>
       <c r="G17" s="35">
-        <f>IF(D17="","",IF($E$5="OUI",WORKDAY(E17,IF(WEEKDAY(E17,2)&gt;=6,F17,F17-1)),E17+F17-1))</f>
+        <f t="shared" si="109"/>
         <v>-1</v>
       </c>
       <c r="H17" s="39">
@@ -4276,19 +3947,19 @@
       <c r="E19" s="31">
         <v>42499</v>
       </c>
-      <c r="F19" s="62">
-        <f>6+4+6</f>
-        <v>16</v>
+      <c r="F19" s="45">
+        <f>8+4+6</f>
+        <v>18</v>
       </c>
       <c r="G19" s="35">
-        <f>IF(D19="","",IF($E$5="OUI",WORKDAY(E19,IF(WEEKDAY(E19,2)&gt;=6,F19,F19-1)),E19+F19-1))</f>
-        <v>42514</v>
+        <f t="shared" ref="G19:G34" si="112">IF(D19="","",IF($E$5="OUI",WORKDAY(E19,IF(WEEKDAY(E19,2)&gt;=6,F19,F19-1)),E19+F19-1))</f>
+        <v>42516</v>
       </c>
       <c r="H19" s="39">
         <v>0</v>
       </c>
       <c r="I19" s="18">
-        <f t="shared" ref="I19:I36" si="111">E19+H19*(G19-E19)</f>
+        <f t="shared" ref="I19:I37" si="113">E19+H19*(G19-E19)</f>
         <v>42499</v>
       </c>
     </row>
@@ -4300,9 +3971,9 @@
         <v>57</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="62"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="35">
-        <f>IF(D20="","",IF($E$5="OUI",WORKDAY(E20,IF(WEEKDAY(E20,2)&gt;=6,F20,F20-1)),E20+F20-1))</f>
+        <f t="shared" si="112"/>
         <v>-1</v>
       </c>
       <c r="H20" s="39">
@@ -4318,9 +3989,9 @@
         <v>58</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="62"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="35">
-        <f>IF(D21="","",IF($E$5="OUI",WORKDAY(E21,IF(WEEKDAY(E21,2)&gt;=6,F21,F21-1)),E21+F21-1))</f>
+        <f t="shared" si="112"/>
         <v>-1</v>
       </c>
       <c r="H21" s="39">
@@ -4336,9 +4007,9 @@
         <v>60</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="F22" s="62"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="35">
-        <f>IF(D22="","",IF($E$5="OUI",WORKDAY(E22,IF(WEEKDAY(E22,2)&gt;=6,F22,F22-1)),E22+F22-1))</f>
+        <f t="shared" si="112"/>
         <v>-1</v>
       </c>
       <c r="H22" s="39">
@@ -4354,9 +4025,9 @@
         <v>61</v>
       </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="62"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="35">
-        <f>IF(D23="","",IF($E$5="OUI",WORKDAY(E23,IF(WEEKDAY(E23,2)&gt;=6,F23,F23-1)),E23+F23-1))</f>
+        <f t="shared" si="112"/>
         <v>-1</v>
       </c>
       <c r="H23" s="39">
@@ -4364,50 +4035,45 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:122" ht="13" customHeight="1">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:122" hidden="1">
+      <c r="B24" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:122" ht="13" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B25" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E25" s="31">
         <v>42507</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F25" s="46">
         <f>2*1</f>
         <v>2</v>
       </c>
-      <c r="G24" s="35">
-        <f>IF(D24="","",IF($E$5="OUI",WORKDAY(E24,IF(WEEKDAY(E24,2)&gt;=6,F24,F24-1)),E24+F24-1))</f>
+      <c r="G25" s="35">
+        <f t="shared" si="112"/>
         <v>42508</v>
-      </c>
-      <c r="H24" s="39">
-        <v>0</v>
-      </c>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:122" ht="13" hidden="1" customHeight="1">
-      <c r="B25" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="35">
-        <f>IF(D25="","",IF($E$5="OUI",WORKDAY(E25,IF(WEEKDAY(E25,2)&gt;=6,F25,F25-1)),E25+F25-1))</f>
-        <v>-1</v>
       </c>
       <c r="H25" s="39">
         <v>0</v>
@@ -4422,12 +4088,12 @@
         <v>84</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="31"/>
-      <c r="F26" s="63"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="35">
-        <f>IF(D26="","",IF($E$5="OUI",WORKDAY(E26,IF(WEEKDAY(E26,2)&gt;=6,F26,F26-1)),E26+F26-1))</f>
+        <f t="shared" si="112"/>
         <v>-1</v>
       </c>
       <c r="H26" s="39">
@@ -4443,12 +4109,12 @@
         <v>84</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="31"/>
-      <c r="F27" s="63"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="35">
-        <f>IF(D27="","",IF($E$5="OUI",WORKDAY(E27,IF(WEEKDAY(E27,2)&gt;=6,F27,F27-1)),E27+F27-1))</f>
+        <f t="shared" si="112"/>
         <v>-1</v>
       </c>
       <c r="H27" s="39">
@@ -4464,12 +4130,12 @@
         <v>84</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="31"/>
-      <c r="F28" s="63"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="35">
-        <f>IF(D28="","",IF($E$5="OUI",WORKDAY(E28,IF(WEEKDAY(E28,2)&gt;=6,F28,F28-1)),E28+F28-1))</f>
+        <f t="shared" si="112"/>
         <v>-1</v>
       </c>
       <c r="H28" s="39">
@@ -4477,7 +4143,7 @@
       </c>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:122" ht="13" hidden="1" customHeight="1">
+    <row r="29" spans="1:122">
       <c r="B29" s="26" t="s">
         <v>88</v>
       </c>
@@ -4485,12 +4151,12 @@
         <v>84</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="31"/>
-      <c r="F29" s="63"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="35">
-        <f>IF(D29="","",IF($E$5="OUI",WORKDAY(E29,IF(WEEKDAY(E29,2)&gt;=6,F29,F29-1)),E29+F29-1))</f>
+        <f t="shared" si="112"/>
         <v>-1</v>
       </c>
       <c r="H29" s="39">
@@ -4499,9 +4165,6 @@
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:122">
-      <c r="A30" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="B30" s="26" t="s">
         <v>88</v>
       </c>
@@ -4509,39 +4172,42 @@
         <v>84</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="35">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:122">
+      <c r="A31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E31" s="31">
         <v>42510</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F31" s="46">
         <f>2*1*2</f>
         <v>4</v>
       </c>
-      <c r="G30" s="35">
-        <f>IF(D30="","",IF($E$5="OUI",WORKDAY(E30,IF(WEEKDAY(E30,2)&gt;=6,F30,F30-1)),E30+F30-1))</f>
+      <c r="G31" s="35">
+        <f t="shared" si="112"/>
         <v>42513</v>
-      </c>
-      <c r="H30" s="39">
-        <v>0</v>
-      </c>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:122" hidden="1">
-      <c r="A31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="35">
-        <f>IF(D31="","",IF($E$5="OUI",WORKDAY(E31,IF(WEEKDAY(E31,2)&gt;=6,F31,F31-1)),E31+F31-1))</f>
-        <v>-1</v>
       </c>
       <c r="H31" s="39">
         <v>0</v>
@@ -4550,18 +4216,18 @@
     </row>
     <row r="32" spans="1:122" hidden="1">
       <c r="A32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="31"/>
-      <c r="F32" s="62"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="35">
-        <f>IF(D32="","",IF($E$5="OUI",WORKDAY(E32,IF(WEEKDAY(E32,2)&gt;=6,F32,F32-1)),E32+F32-1))</f>
+        <f t="shared" si="112"/>
         <v>-1</v>
       </c>
       <c r="H32" s="39">
@@ -4569,577 +4235,579 @@
       </c>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:122">
+    <row r="33" spans="1:122" hidden="1">
       <c r="A33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="35">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="H33" s="39">
+        <v>0</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:122">
+      <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B34" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E34" s="31">
         <v>42518</v>
       </c>
-      <c r="F33" s="62">
+      <c r="F34" s="45">
         <f>2*1+2*1</f>
         <v>4</v>
       </c>
-      <c r="G33" s="35">
-        <f>IF(D33="","",IF($E$5="OUI",WORKDAY(E33,IF(WEEKDAY(E33,2)&gt;=6,F33,F33-1)),E33+F33-1))</f>
+      <c r="G34" s="35">
+        <f t="shared" si="112"/>
         <v>42521</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H34" s="39">
         <v>0</v>
       </c>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:122" hidden="1">
-      <c r="B34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="39"/>
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:122" hidden="1">
       <c r="B35" s="26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="31"/>
-      <c r="F35" s="62"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="35"/>
       <c r="H35" s="39"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:122">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:122" hidden="1">
+      <c r="B36" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:122">
+      <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B37" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C37" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E37" s="31">
         <v>42518</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F37" s="45">
         <f>0.5+6+2</f>
         <v>8.5</v>
       </c>
-      <c r="G36" s="35">
-        <f>IF(D37="","",IF($E$5="OUI",WORKDAY(E36,IF(WEEKDAY(E36,2)&gt;=6,F36,F36-1)),E36+F36-1))</f>
+      <c r="G37" s="35">
+        <f>IF(D38="","",IF($E$5="OUI",WORKDAY(E37,IF(WEEKDAY(E37,2)&gt;=6,F37,F37-1)),E37+F37-1))</f>
         <v>42525.5</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H37" s="39">
         <v>0</v>
       </c>
-      <c r="I36" s="18">
-        <f t="shared" si="111"/>
+      <c r="I37" s="18">
+        <f t="shared" si="113"/>
         <v>42518</v>
       </c>
     </row>
-    <row r="37" spans="1:122" hidden="1">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:122" hidden="1">
+      <c r="A38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B38" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C38" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E38" s="31">
         <v>42519</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F38" s="45">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="G37" s="35">
-        <f t="shared" ref="G37:G40" si="112">IF(D38="","",IF($E$5="OUI",WORKDAY(E37,IF(WEEKDAY(E37,2)&gt;=6,F37,F37-1)),E37+F37-1))</f>
+      <c r="G38" s="35">
+        <f t="shared" ref="G38:G41" si="114">IF(D39="","",IF($E$5="OUI",WORKDAY(E38,IF(WEEKDAY(E38,2)&gt;=6,F38,F38-1)),E38+F38-1))</f>
         <v>42522</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:122" hidden="1">
-      <c r="B38" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="31">
-        <v>42520</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="35">
-        <f t="shared" si="112"/>
-        <v>42519</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:122" hidden="1">
-      <c r="A39" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="B39" s="26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>81</v>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E39" s="31">
-        <v>42521</v>
+        <v>42520</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="35">
-        <f t="shared" si="112"/>
-        <v>42520</v>
+        <f t="shared" si="114"/>
+        <v>42519</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:122">
+    <row r="40" spans="1:122" hidden="1">
       <c r="A40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="31">
+        <v>42521</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="35">
+        <f t="shared" si="114"/>
+        <v>42520</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:122">
+      <c r="A41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B41" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C41" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E41" s="31">
         <v>42524</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="12">
         <v>2</v>
       </c>
-      <c r="G40" s="35">
-        <f t="shared" si="112"/>
+      <c r="G41" s="35">
+        <f t="shared" si="114"/>
         <v>42525</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H41" s="39">
         <v>0</v>
       </c>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:122" s="2" customFormat="1" ht="13" customHeight="1">
-      <c r="A41" s="19">
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:122" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A42" s="19">
         <v>3</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="20" t="s">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="23"/>
-      <c r="AB41" s="23"/>
-      <c r="AC41" s="23"/>
-      <c r="AD41" s="23"/>
-      <c r="AE41" s="23"/>
-      <c r="AF41" s="23"/>
-      <c r="AG41" s="23"/>
-      <c r="AH41" s="23"/>
-      <c r="AI41" s="23"/>
-      <c r="AJ41" s="23"/>
-      <c r="AK41" s="23"/>
-      <c r="AL41" s="23"/>
-      <c r="AM41" s="23"/>
-      <c r="AN41" s="23"/>
-      <c r="AO41" s="23"/>
-      <c r="AP41" s="23"/>
-      <c r="AQ41" s="23"/>
-      <c r="AR41" s="23"/>
-      <c r="AS41" s="23"/>
-      <c r="AT41" s="23"/>
-      <c r="AU41" s="23"/>
-      <c r="AV41" s="23"/>
-      <c r="AW41" s="23"/>
-      <c r="AX41" s="23"/>
-      <c r="AY41" s="23"/>
-      <c r="AZ41" s="23"/>
-      <c r="BA41" s="23"/>
-      <c r="BB41" s="23"/>
-      <c r="BC41" s="23"/>
-      <c r="BD41" s="23"/>
-      <c r="BE41" s="23"/>
-      <c r="BF41" s="23"/>
-      <c r="BG41" s="23"/>
-      <c r="BH41" s="23"/>
-      <c r="BI41" s="23"/>
-      <c r="BJ41" s="23"/>
-      <c r="BK41" s="23"/>
-      <c r="BL41" s="23"/>
-      <c r="BM41" s="23"/>
-      <c r="BN41" s="23"/>
-      <c r="BO41" s="23"/>
-      <c r="BP41" s="23"/>
-      <c r="BQ41" s="23"/>
-      <c r="BR41" s="23"/>
-      <c r="BS41" s="23"/>
-      <c r="BT41" s="23"/>
-      <c r="BU41" s="23"/>
-      <c r="BV41" s="23"/>
-      <c r="BW41" s="23"/>
-      <c r="BX41" s="23"/>
-      <c r="BY41" s="23"/>
-      <c r="BZ41" s="23"/>
-      <c r="CA41" s="23"/>
-      <c r="CB41" s="23"/>
-      <c r="CC41" s="23"/>
-      <c r="CD41" s="23"/>
-      <c r="CE41" s="23"/>
-      <c r="CF41" s="23"/>
-      <c r="CG41" s="23"/>
-      <c r="CH41" s="23"/>
-      <c r="CI41" s="23"/>
-      <c r="CJ41" s="23"/>
-      <c r="CK41" s="23"/>
-      <c r="CL41" s="23"/>
-      <c r="CM41" s="23"/>
-      <c r="CN41" s="23"/>
-      <c r="CO41" s="23"/>
-      <c r="CP41" s="23"/>
-      <c r="CQ41" s="23"/>
-      <c r="CR41" s="23"/>
-      <c r="CS41" s="23"/>
-      <c r="CT41" s="23"/>
-      <c r="CU41" s="23"/>
-      <c r="CV41" s="23"/>
-      <c r="CW41" s="23"/>
-      <c r="CX41" s="23"/>
-      <c r="CY41" s="23"/>
-      <c r="CZ41" s="23"/>
-      <c r="DA41" s="23"/>
-      <c r="DB41" s="23"/>
-      <c r="DC41" s="23"/>
-      <c r="DD41" s="23"/>
-      <c r="DE41" s="23"/>
-      <c r="DF41" s="23"/>
-      <c r="DG41" s="23"/>
-      <c r="DH41" s="23"/>
-      <c r="DI41" s="23"/>
-      <c r="DJ41" s="23"/>
-      <c r="DK41" s="23"/>
-      <c r="DL41" s="23"/>
-      <c r="DM41" s="23"/>
-      <c r="DN41" s="23"/>
-      <c r="DO41" s="23"/>
-      <c r="DP41" s="23"/>
-      <c r="DQ41" s="23"/>
-      <c r="DR41" s="23"/>
-    </row>
-    <row r="42" spans="1:122" ht="13" customHeight="1">
-      <c r="A42" s="7" t="s">
+      <c r="E42" s="27"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="23"/>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="23"/>
+      <c r="AP42" s="23"/>
+      <c r="AQ42" s="23"/>
+      <c r="AR42" s="23"/>
+      <c r="AS42" s="23"/>
+      <c r="AT42" s="23"/>
+      <c r="AU42" s="23"/>
+      <c r="AV42" s="23"/>
+      <c r="AW42" s="23"/>
+      <c r="AX42" s="23"/>
+      <c r="AY42" s="23"/>
+      <c r="AZ42" s="23"/>
+      <c r="BA42" s="23"/>
+      <c r="BB42" s="23"/>
+      <c r="BC42" s="23"/>
+      <c r="BD42" s="23"/>
+      <c r="BE42" s="23"/>
+      <c r="BF42" s="23"/>
+      <c r="BG42" s="23"/>
+      <c r="BH42" s="23"/>
+      <c r="BI42" s="23"/>
+      <c r="BJ42" s="23"/>
+      <c r="BK42" s="23"/>
+      <c r="BL42" s="23"/>
+      <c r="BM42" s="23"/>
+      <c r="BN42" s="23"/>
+      <c r="BO42" s="23"/>
+      <c r="BP42" s="23"/>
+      <c r="BQ42" s="23"/>
+      <c r="BR42" s="23"/>
+      <c r="BS42" s="23"/>
+      <c r="BT42" s="23"/>
+      <c r="BU42" s="23"/>
+      <c r="BV42" s="23"/>
+      <c r="BW42" s="23"/>
+      <c r="BX42" s="23"/>
+      <c r="BY42" s="23"/>
+      <c r="BZ42" s="23"/>
+      <c r="CA42" s="23"/>
+      <c r="CB42" s="23"/>
+      <c r="CC42" s="23"/>
+      <c r="CD42" s="23"/>
+      <c r="CE42" s="23"/>
+      <c r="CF42" s="23"/>
+      <c r="CG42" s="23"/>
+      <c r="CH42" s="23"/>
+      <c r="CI42" s="23"/>
+      <c r="CJ42" s="23"/>
+      <c r="CK42" s="23"/>
+      <c r="CL42" s="23"/>
+      <c r="CM42" s="23"/>
+      <c r="CN42" s="23"/>
+      <c r="CO42" s="23"/>
+      <c r="CP42" s="23"/>
+      <c r="CQ42" s="23"/>
+      <c r="CR42" s="23"/>
+      <c r="CS42" s="23"/>
+      <c r="CT42" s="23"/>
+      <c r="CU42" s="23"/>
+      <c r="CV42" s="23"/>
+      <c r="CW42" s="23"/>
+      <c r="CX42" s="23"/>
+      <c r="CY42" s="23"/>
+      <c r="CZ42" s="23"/>
+      <c r="DA42" s="23"/>
+      <c r="DB42" s="23"/>
+      <c r="DC42" s="23"/>
+      <c r="DD42" s="23"/>
+      <c r="DE42" s="23"/>
+      <c r="DF42" s="23"/>
+      <c r="DG42" s="23"/>
+      <c r="DH42" s="23"/>
+      <c r="DI42" s="23"/>
+      <c r="DJ42" s="23"/>
+      <c r="DK42" s="23"/>
+      <c r="DL42" s="23"/>
+      <c r="DM42" s="23"/>
+      <c r="DN42" s="23"/>
+      <c r="DO42" s="23"/>
+      <c r="DP42" s="23"/>
+      <c r="DQ42" s="23"/>
+      <c r="DR42" s="23"/>
+    </row>
+    <row r="43" spans="1:122" ht="13" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C43" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E43" s="31">
         <v>42500</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F43" s="12">
         <v>6</v>
       </c>
-      <c r="G42" s="35">
-        <f>IF(D42="","",IF($E$5="OUI",WORKDAY(E42,IF(WEEKDAY(E42,2)&gt;=6,F42,F42-1)),E42+F42-1))</f>
-        <v>42505</v>
-      </c>
-      <c r="H42" s="39">
-        <v>0</v>
-      </c>
-      <c r="I42" s="18">
-        <f t="shared" ref="I42:I44" si="113">E42+H42*(G42-E42)</f>
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:122" ht="13" hidden="1" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="12"/>
       <c r="G43" s="35">
         <f>IF(D43="","",IF($E$5="OUI",WORKDAY(E43,IF(WEEKDAY(E43,2)&gt;=6,F43,F43-1)),E43+F43-1))</f>
-        <v>-1</v>
+        <v>42505</v>
       </c>
       <c r="H43" s="39">
         <v>0</v>
       </c>
       <c r="I43" s="18">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:122" ht="13" customHeight="1">
+        <f t="shared" ref="I43:I45" si="115">E43+H43*(G43-E43)</f>
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:122" ht="13" hidden="1" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="31">
-        <v>42556</v>
-      </c>
-      <c r="F44" s="12">
-        <v>16</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="35">
         <f>IF(D44="","",IF($E$5="OUI",WORKDAY(E44,IF(WEEKDAY(E44,2)&gt;=6,F44,F44-1)),E44+F44-1))</f>
-        <v>42571</v>
+        <v>-1</v>
       </c>
       <c r="H44" s="39">
         <v>0</v>
       </c>
       <c r="I44" s="18">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:122" ht="13" customHeight="1">
+      <c r="A45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="31">
         <v>42556</v>
       </c>
-    </row>
-    <row r="45" spans="1:122" s="2" customFormat="1" ht="13" customHeight="1">
-      <c r="A45" s="19">
+      <c r="F45" s="12">
+        <v>16</v>
+      </c>
+      <c r="G45" s="35">
+        <f>IF(D45="","",IF($E$5="OUI",WORKDAY(E45,IF(WEEKDAY(E45,2)&gt;=6,F45,F45-1)),E45+F45-1))</f>
+        <v>42571</v>
+      </c>
+      <c r="H45" s="39">
+        <v>0</v>
+      </c>
+      <c r="I45" s="18">
+        <f t="shared" si="115"/>
+        <v>42556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:122" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A46" s="19">
         <v>4</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="20" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="61">
+      <c r="E46" s="27"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="44">
         <v>42571</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="38"/>
-      <c r="AK45" s="38"/>
-      <c r="AL45" s="38"/>
-      <c r="AM45" s="38"/>
-      <c r="AN45" s="38"/>
-      <c r="AO45" s="38"/>
-      <c r="AP45" s="38"/>
-      <c r="AQ45" s="38"/>
-      <c r="AR45" s="38"/>
-      <c r="AS45" s="38"/>
-      <c r="AT45" s="38"/>
-      <c r="AU45" s="38"/>
-      <c r="AV45" s="38"/>
-      <c r="AW45" s="38"/>
-      <c r="AX45" s="38"/>
-      <c r="AY45" s="38"/>
-      <c r="AZ45" s="38"/>
-      <c r="BA45" s="38"/>
-      <c r="BB45" s="38"/>
-      <c r="BC45" s="38"/>
-      <c r="BD45" s="38"/>
-      <c r="BE45" s="38"/>
-      <c r="BF45" s="38"/>
-      <c r="BG45" s="38"/>
-      <c r="BH45" s="38"/>
-      <c r="BI45" s="38"/>
-      <c r="BJ45" s="38"/>
-      <c r="BK45" s="38"/>
-      <c r="BL45" s="38"/>
-      <c r="BM45" s="38"/>
-      <c r="BN45" s="38"/>
-      <c r="BO45" s="38"/>
-      <c r="BP45" s="38"/>
-      <c r="BQ45" s="38"/>
-      <c r="BR45" s="38"/>
-      <c r="BS45" s="38"/>
-      <c r="BT45" s="38"/>
-      <c r="BU45" s="38"/>
-      <c r="BV45" s="38"/>
-      <c r="BW45" s="38"/>
-      <c r="BX45" s="38"/>
-      <c r="BY45" s="38"/>
-      <c r="BZ45" s="38"/>
-      <c r="CA45" s="38"/>
-      <c r="CB45" s="38"/>
-      <c r="CC45" s="38"/>
-      <c r="CD45" s="38"/>
-      <c r="CE45" s="38"/>
-      <c r="CF45" s="38"/>
-      <c r="CG45" s="38"/>
-      <c r="CH45" s="38"/>
-      <c r="CI45" s="38"/>
-      <c r="CJ45" s="38"/>
-      <c r="CK45" s="38"/>
-      <c r="CL45" s="38"/>
-      <c r="CM45" s="38"/>
-      <c r="CN45" s="38"/>
-      <c r="CO45" s="38"/>
-      <c r="CP45" s="38"/>
-      <c r="CQ45" s="38"/>
-      <c r="CR45" s="38"/>
-      <c r="CS45" s="38"/>
-      <c r="CT45" s="38"/>
-      <c r="CU45" s="38"/>
-      <c r="CV45" s="38"/>
-      <c r="CW45" s="64"/>
-      <c r="CX45" s="38"/>
-      <c r="CY45" s="38"/>
-      <c r="CZ45" s="38"/>
-      <c r="DA45" s="38"/>
-      <c r="DB45" s="38"/>
-      <c r="DC45" s="38"/>
-      <c r="DD45" s="38"/>
-      <c r="DE45" s="38"/>
-      <c r="DF45" s="38"/>
-      <c r="DG45" s="38"/>
-      <c r="DH45" s="38"/>
-      <c r="DI45" s="38"/>
-      <c r="DJ45" s="38"/>
-      <c r="DK45" s="38"/>
-      <c r="DL45" s="38"/>
-      <c r="DM45" s="38"/>
-      <c r="DN45" s="38"/>
-      <c r="DO45" s="23"/>
-      <c r="DP45" s="23"/>
-      <c r="DQ45" s="23"/>
-      <c r="DR45" s="23"/>
-    </row>
-    <row r="46" spans="1:122" ht="13" hidden="1" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="35">
-        <f>IF(D46="","",IF($E$5="OUI",WORKDAY(E46,IF(WEEKDAY(E46,2)&gt;=6,F46,F46-1)),E46+F46-1))</f>
-        <v>-1</v>
-      </c>
-      <c r="H46" s="39">
-        <v>0</v>
-      </c>
-      <c r="I46" s="18">
-        <f t="shared" ref="I46:I48" si="114">E46+H46*(G46-E46)</f>
-        <v>0</v>
-      </c>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="38"/>
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="38"/>
+      <c r="AH46" s="38"/>
+      <c r="AI46" s="38"/>
+      <c r="AJ46" s="38"/>
+      <c r="AK46" s="38"/>
+      <c r="AL46" s="38"/>
+      <c r="AM46" s="38"/>
+      <c r="AN46" s="38"/>
+      <c r="AO46" s="38"/>
+      <c r="AP46" s="38"/>
+      <c r="AQ46" s="38"/>
+      <c r="AR46" s="38"/>
+      <c r="AS46" s="38"/>
+      <c r="AT46" s="38"/>
+      <c r="AU46" s="38"/>
+      <c r="AV46" s="38"/>
+      <c r="AW46" s="38"/>
+      <c r="AX46" s="38"/>
+      <c r="AY46" s="38"/>
+      <c r="AZ46" s="38"/>
+      <c r="BA46" s="38"/>
+      <c r="BB46" s="38"/>
+      <c r="BC46" s="38"/>
+      <c r="BD46" s="38"/>
+      <c r="BE46" s="38"/>
+      <c r="BF46" s="38"/>
+      <c r="BG46" s="38"/>
+      <c r="BH46" s="38"/>
+      <c r="BI46" s="38"/>
+      <c r="BJ46" s="38"/>
+      <c r="BK46" s="38"/>
+      <c r="BL46" s="38"/>
+      <c r="BM46" s="38"/>
+      <c r="BN46" s="38"/>
+      <c r="BO46" s="38"/>
+      <c r="BP46" s="38"/>
+      <c r="BQ46" s="38"/>
+      <c r="BR46" s="38"/>
+      <c r="BS46" s="38"/>
+      <c r="BT46" s="38"/>
+      <c r="BU46" s="38"/>
+      <c r="BV46" s="38"/>
+      <c r="BW46" s="38"/>
+      <c r="BX46" s="38"/>
+      <c r="BY46" s="38"/>
+      <c r="BZ46" s="38"/>
+      <c r="CA46" s="38"/>
+      <c r="CB46" s="38"/>
+      <c r="CC46" s="38"/>
+      <c r="CD46" s="38"/>
+      <c r="CE46" s="38"/>
+      <c r="CF46" s="38"/>
+      <c r="CG46" s="38"/>
+      <c r="CH46" s="38"/>
+      <c r="CI46" s="38"/>
+      <c r="CJ46" s="38"/>
+      <c r="CK46" s="38"/>
+      <c r="CL46" s="38"/>
+      <c r="CM46" s="38"/>
+      <c r="CN46" s="38"/>
+      <c r="CO46" s="38"/>
+      <c r="CP46" s="38"/>
+      <c r="CQ46" s="38"/>
+      <c r="CR46" s="38"/>
+      <c r="CS46" s="38"/>
+      <c r="CT46" s="38"/>
+      <c r="CU46" s="38"/>
+      <c r="CV46" s="38"/>
+      <c r="CW46" s="47"/>
+      <c r="CX46" s="38"/>
+      <c r="CY46" s="38"/>
+      <c r="CZ46" s="38"/>
+      <c r="DA46" s="38"/>
+      <c r="DB46" s="38"/>
+      <c r="DC46" s="38"/>
+      <c r="DD46" s="38"/>
+      <c r="DE46" s="38"/>
+      <c r="DF46" s="38"/>
+      <c r="DG46" s="38"/>
+      <c r="DH46" s="38"/>
+      <c r="DI46" s="38"/>
+      <c r="DJ46" s="38"/>
+      <c r="DK46" s="38"/>
+      <c r="DL46" s="38"/>
+      <c r="DM46" s="38"/>
+      <c r="DN46" s="38"/>
+      <c r="DO46" s="23"/>
+      <c r="DP46" s="23"/>
+      <c r="DQ46" s="23"/>
+      <c r="DR46" s="23"/>
     </row>
     <row r="47" spans="1:122" ht="13" hidden="1" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="E47" s="31"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="35" t="str">
+      <c r="G47" s="35">
         <f>IF(D47="","",IF($E$5="OUI",WORKDAY(E47,IF(WEEKDAY(E47,2)&gt;=6,F47,F47-1)),E47+F47-1))</f>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="H47" s="39">
         <v>0</v>
       </c>
-      <c r="I47" s="18" t="e">
-        <f t="shared" si="114"/>
-        <v>#VALUE!</v>
+      <c r="I47" s="18">
+        <f t="shared" ref="I47:I49" si="116">E47+H47*(G47-E47)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:122" ht="13" hidden="1" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="31"/>
@@ -5152,440 +4820,464 @@
         <v>0</v>
       </c>
       <c r="I48" s="18" t="e">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="4:9" ht="13" customHeight="1">
+    <row r="49" spans="1:9" ht="13" hidden="1" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="35"/>
-      <c r="I49" s="18">
-        <f t="shared" ref="I49:I56" si="115">E49+H49*(G49-E49)</f>
+      <c r="E49" s="31"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="35" t="str">
+        <f>IF(D49="","",IF($E$5="OUI",WORKDAY(E49,IF(WEEKDAY(E49,2)&gt;=6,F49,F49-1)),E49+F49-1))</f>
+        <v/>
+      </c>
+      <c r="H49" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="4:9" ht="13" customHeight="1">
+      <c r="I49" s="18" t="e">
+        <f t="shared" si="116"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="13" customHeight="1">
       <c r="D50" s="11"/>
       <c r="E50" s="32"/>
       <c r="F50" s="13"/>
       <c r="G50" s="35"/>
       <c r="I50" s="18">
-        <f t="shared" si="115"/>
+        <f t="shared" ref="I50:I57" si="117">E50+H50*(G50-E50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:9" ht="13" customHeight="1">
+    <row r="51" spans="1:9" ht="13" customHeight="1">
       <c r="D51" s="11"/>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
       <c r="G51" s="35"/>
       <c r="I51" s="18">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:9" ht="13" customHeight="1">
+    <row r="52" spans="1:9" ht="13" customHeight="1">
       <c r="D52" s="11"/>
       <c r="E52" s="32"/>
       <c r="F52" s="13"/>
       <c r="G52" s="35"/>
       <c r="I52" s="18">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:9" ht="13" customHeight="1">
+    <row r="53" spans="1:9" ht="13" customHeight="1">
       <c r="D53" s="11"/>
       <c r="E53" s="32"/>
       <c r="F53" s="13"/>
       <c r="G53" s="35"/>
       <c r="I53" s="18">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:9" ht="13" customHeight="1">
+    <row r="54" spans="1:9" ht="13" customHeight="1">
       <c r="D54" s="11"/>
       <c r="E54" s="32"/>
       <c r="F54" s="13"/>
       <c r="G54" s="35"/>
       <c r="I54" s="18">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:9" ht="13" customHeight="1">
+    <row r="55" spans="1:9" ht="13" customHeight="1">
       <c r="D55" s="11"/>
       <c r="E55" s="32"/>
       <c r="F55" s="13"/>
       <c r="G55" s="35"/>
       <c r="I55" s="18">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:9" ht="13" customHeight="1">
+    <row r="56" spans="1:9" ht="13" customHeight="1">
       <c r="D56" s="11"/>
       <c r="E56" s="32"/>
       <c r="F56" s="13"/>
       <c r="G56" s="35"/>
       <c r="I56" s="18">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:9" ht="13" customHeight="1">
-      <c r="G57" s="35" t="str">
-        <f>IF(D57="","",IF($E$5="OUI",WORKDAY(E57,IF(WEEKDAY(E57,2)&gt;=6,F57,F57-1)),E57+F57-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="4:9" ht="13" customHeight="1">
+    <row r="57" spans="1:9" ht="13" customHeight="1">
+      <c r="D57" s="11"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="35"/>
+      <c r="I57" s="18">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="13" customHeight="1">
       <c r="G58" s="35" t="str">
-        <f>IF(D58="","",IF($E$5="OUI",WORKDAY(E58,IF(WEEKDAY(E58,2)&gt;=6,F58,F58-1)),E58+F58-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="4:9" ht="13" customHeight="1">
+        <f t="shared" ref="G58:G89" si="118">IF(D58="","",IF($E$5="OUI",WORKDAY(E58,IF(WEEKDAY(E58,2)&gt;=6,F58,F58-1)),E58+F58-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="13" customHeight="1">
       <c r="G59" s="35" t="str">
-        <f>IF(D59="","",IF($E$5="OUI",WORKDAY(E59,IF(WEEKDAY(E59,2)&gt;=6,F59,F59-1)),E59+F59-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="4:9" ht="13" customHeight="1">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="13" customHeight="1">
       <c r="G60" s="35" t="str">
-        <f>IF(D60="","",IF($E$5="OUI",WORKDAY(E60,IF(WEEKDAY(E60,2)&gt;=6,F60,F60-1)),E60+F60-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="4:9" ht="13" customHeight="1">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="13" customHeight="1">
       <c r="G61" s="35" t="str">
-        <f>IF(D61="","",IF($E$5="OUI",WORKDAY(E61,IF(WEEKDAY(E61,2)&gt;=6,F61,F61-1)),E61+F61-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="4:9" ht="13" customHeight="1">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="13" customHeight="1">
       <c r="G62" s="35" t="str">
-        <f>IF(D62="","",IF($E$5="OUI",WORKDAY(E62,IF(WEEKDAY(E62,2)&gt;=6,F62,F62-1)),E62+F62-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="4:9" ht="13" customHeight="1">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="13" customHeight="1">
       <c r="G63" s="35" t="str">
-        <f>IF(D63="","",IF($E$5="OUI",WORKDAY(E63,IF(WEEKDAY(E63,2)&gt;=6,F63,F63-1)),E63+F63-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="4:9" ht="13" customHeight="1">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="13" customHeight="1">
       <c r="G64" s="35" t="str">
-        <f>IF(D64="","",IF($E$5="OUI",WORKDAY(E64,IF(WEEKDAY(E64,2)&gt;=6,F64,F64-1)),E64+F64-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="7:7" ht="13" customHeight="1">
       <c r="G65" s="35" t="str">
-        <f>IF(D65="","",IF($E$5="OUI",WORKDAY(E65,IF(WEEKDAY(E65,2)&gt;=6,F65,F65-1)),E65+F65-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="7:7" ht="13" customHeight="1">
       <c r="G66" s="35" t="str">
-        <f>IF(D66="","",IF($E$5="OUI",WORKDAY(E66,IF(WEEKDAY(E66,2)&gt;=6,F66,F66-1)),E66+F66-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="7:7" ht="13" customHeight="1">
       <c r="G67" s="35" t="str">
-        <f>IF(D67="","",IF($E$5="OUI",WORKDAY(E67,IF(WEEKDAY(E67,2)&gt;=6,F67,F67-1)),E67+F67-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="7:7" ht="13" customHeight="1">
       <c r="G68" s="35" t="str">
-        <f>IF(D68="","",IF($E$5="OUI",WORKDAY(E68,IF(WEEKDAY(E68,2)&gt;=6,F68,F68-1)),E68+F68-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="7:7" ht="13" customHeight="1">
       <c r="G69" s="35" t="str">
-        <f>IF(D69="","",IF($E$5="OUI",WORKDAY(E69,IF(WEEKDAY(E69,2)&gt;=6,F69,F69-1)),E69+F69-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="7:7" ht="13" customHeight="1">
       <c r="G70" s="35" t="str">
-        <f>IF(D70="","",IF($E$5="OUI",WORKDAY(E70,IF(WEEKDAY(E70,2)&gt;=6,F70,F70-1)),E70+F70-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="7:7" ht="13" customHeight="1">
       <c r="G71" s="35" t="str">
-        <f>IF(D71="","",IF($E$5="OUI",WORKDAY(E71,IF(WEEKDAY(E71,2)&gt;=6,F71,F71-1)),E71+F71-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="7:7" ht="13" customHeight="1">
       <c r="G72" s="35" t="str">
-        <f>IF(D72="","",IF($E$5="OUI",WORKDAY(E72,IF(WEEKDAY(E72,2)&gt;=6,F72,F72-1)),E72+F72-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="7:7" ht="13" customHeight="1">
       <c r="G73" s="35" t="str">
-        <f>IF(D73="","",IF($E$5="OUI",WORKDAY(E73,IF(WEEKDAY(E73,2)&gt;=6,F73,F73-1)),E73+F73-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="7:7" ht="13" customHeight="1">
       <c r="G74" s="35" t="str">
-        <f>IF(D74="","",IF($E$5="OUI",WORKDAY(E74,IF(WEEKDAY(E74,2)&gt;=6,F74,F74-1)),E74+F74-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="7:7" ht="13" customHeight="1">
       <c r="G75" s="35" t="str">
-        <f>IF(D75="","",IF($E$5="OUI",WORKDAY(E75,IF(WEEKDAY(E75,2)&gt;=6,F75,F75-1)),E75+F75-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="7:7" ht="13" customHeight="1">
       <c r="G76" s="35" t="str">
-        <f>IF(D76="","",IF($E$5="OUI",WORKDAY(E76,IF(WEEKDAY(E76,2)&gt;=6,F76,F76-1)),E76+F76-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="7:7" ht="13" customHeight="1">
       <c r="G77" s="35" t="str">
-        <f>IF(D77="","",IF($E$5="OUI",WORKDAY(E77,IF(WEEKDAY(E77,2)&gt;=6,F77,F77-1)),E77+F77-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="7:7" ht="13" customHeight="1">
       <c r="G78" s="35" t="str">
-        <f>IF(D78="","",IF($E$5="OUI",WORKDAY(E78,IF(WEEKDAY(E78,2)&gt;=6,F78,F78-1)),E78+F78-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="7:7" ht="13" customHeight="1">
       <c r="G79" s="35" t="str">
-        <f>IF(D79="","",IF($E$5="OUI",WORKDAY(E79,IF(WEEKDAY(E79,2)&gt;=6,F79,F79-1)),E79+F79-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="7:7" ht="13" customHeight="1">
       <c r="G80" s="35" t="str">
-        <f>IF(D80="","",IF($E$5="OUI",WORKDAY(E80,IF(WEEKDAY(E80,2)&gt;=6,F80,F80-1)),E80+F80-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="7:7" ht="13" customHeight="1">
       <c r="G81" s="35" t="str">
-        <f>IF(D81="","",IF($E$5="OUI",WORKDAY(E81,IF(WEEKDAY(E81,2)&gt;=6,F81,F81-1)),E81+F81-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="7:7" ht="13" customHeight="1">
       <c r="G82" s="35" t="str">
-        <f>IF(D82="","",IF($E$5="OUI",WORKDAY(E82,IF(WEEKDAY(E82,2)&gt;=6,F82,F82-1)),E82+F82-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="7:7" ht="13" customHeight="1">
       <c r="G83" s="35" t="str">
-        <f>IF(D83="","",IF($E$5="OUI",WORKDAY(E83,IF(WEEKDAY(E83,2)&gt;=6,F83,F83-1)),E83+F83-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="7:7" ht="13" customHeight="1">
       <c r="G84" s="35" t="str">
-        <f>IF(D84="","",IF($E$5="OUI",WORKDAY(E84,IF(WEEKDAY(E84,2)&gt;=6,F84,F84-1)),E84+F84-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="7:7" ht="13" customHeight="1">
       <c r="G85" s="35" t="str">
-        <f>IF(D85="","",IF($E$5="OUI",WORKDAY(E85,IF(WEEKDAY(E85,2)&gt;=6,F85,F85-1)),E85+F85-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="7:7" ht="13" customHeight="1">
       <c r="G86" s="35" t="str">
-        <f>IF(D86="","",IF($E$5="OUI",WORKDAY(E86,IF(WEEKDAY(E86,2)&gt;=6,F86,F86-1)),E86+F86-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="7:7" ht="13" customHeight="1">
       <c r="G87" s="35" t="str">
-        <f>IF(D87="","",IF($E$5="OUI",WORKDAY(E87,IF(WEEKDAY(E87,2)&gt;=6,F87,F87-1)),E87+F87-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="7:7" ht="13" customHeight="1">
       <c r="G88" s="35" t="str">
-        <f>IF(D88="","",IF($E$5="OUI",WORKDAY(E88,IF(WEEKDAY(E88,2)&gt;=6,F88,F88-1)),E88+F88-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="7:7" ht="13" customHeight="1">
       <c r="G89" s="35" t="str">
-        <f>IF(D89="","",IF($E$5="OUI",WORKDAY(E89,IF(WEEKDAY(E89,2)&gt;=6,F89,F89-1)),E89+F89-1))</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="7:7" ht="13" customHeight="1">
       <c r="G90" s="35" t="str">
-        <f>IF(D90="","",IF($E$5="OUI",WORKDAY(E90,IF(WEEKDAY(E90,2)&gt;=6,F90,F90-1)),E90+F90-1))</f>
+        <f t="shared" ref="G90:G121" si="119">IF(D90="","",IF($E$5="OUI",WORKDAY(E90,IF(WEEKDAY(E90,2)&gt;=6,F90,F90-1)),E90+F90-1))</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="7:7" ht="13" customHeight="1">
       <c r="G91" s="35" t="str">
-        <f>IF(D91="","",IF($E$5="OUI",WORKDAY(E91,IF(WEEKDAY(E91,2)&gt;=6,F91,F91-1)),E91+F91-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="7:7" ht="13" customHeight="1">
       <c r="G92" s="35" t="str">
-        <f>IF(D92="","",IF($E$5="OUI",WORKDAY(E92,IF(WEEKDAY(E92,2)&gt;=6,F92,F92-1)),E92+F92-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="7:7" ht="13" customHeight="1">
       <c r="G93" s="35" t="str">
-        <f>IF(D93="","",IF($E$5="OUI",WORKDAY(E93,IF(WEEKDAY(E93,2)&gt;=6,F93,F93-1)),E93+F93-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="7:7" ht="13" customHeight="1">
       <c r="G94" s="35" t="str">
-        <f>IF(D94="","",IF($E$5="OUI",WORKDAY(E94,IF(WEEKDAY(E94,2)&gt;=6,F94,F94-1)),E94+F94-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="7:7" ht="13" customHeight="1">
       <c r="G95" s="35" t="str">
-        <f>IF(D95="","",IF($E$5="OUI",WORKDAY(E95,IF(WEEKDAY(E95,2)&gt;=6,F95,F95-1)),E95+F95-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="7:7" ht="13" customHeight="1">
       <c r="G96" s="35" t="str">
-        <f>IF(D96="","",IF($E$5="OUI",WORKDAY(E96,IF(WEEKDAY(E96,2)&gt;=6,F96,F96-1)),E96+F96-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="7:7" ht="13" customHeight="1">
       <c r="G97" s="35" t="str">
-        <f>IF(D97="","",IF($E$5="OUI",WORKDAY(E97,IF(WEEKDAY(E97,2)&gt;=6,F97,F97-1)),E97+F97-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="7:7" ht="13" customHeight="1">
       <c r="G98" s="35" t="str">
-        <f>IF(D98="","",IF($E$5="OUI",WORKDAY(E98,IF(WEEKDAY(E98,2)&gt;=6,F98,F98-1)),E98+F98-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="7:7" ht="13" customHeight="1">
       <c r="G99" s="35" t="str">
-        <f>IF(D99="","",IF($E$5="OUI",WORKDAY(E99,IF(WEEKDAY(E99,2)&gt;=6,F99,F99-1)),E99+F99-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="7:7" ht="13" customHeight="1">
       <c r="G100" s="35" t="str">
-        <f>IF(D100="","",IF($E$5="OUI",WORKDAY(E100,IF(WEEKDAY(E100,2)&gt;=6,F100,F100-1)),E100+F100-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="7:7" ht="13" customHeight="1">
       <c r="G101" s="35" t="str">
-        <f>IF(D101="","",IF($E$5="OUI",WORKDAY(E101,IF(WEEKDAY(E101,2)&gt;=6,F101,F101-1)),E101+F101-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="7:7" ht="13" customHeight="1">
       <c r="G102" s="35" t="str">
-        <f>IF(D102="","",IF($E$5="OUI",WORKDAY(E102,IF(WEEKDAY(E102,2)&gt;=6,F102,F102-1)),E102+F102-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="7:7" ht="13" customHeight="1">
       <c r="G103" s="35" t="str">
-        <f>IF(D103="","",IF($E$5="OUI",WORKDAY(E103,IF(WEEKDAY(E103,2)&gt;=6,F103,F103-1)),E103+F103-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="7:7" ht="13" customHeight="1">
       <c r="G104" s="35" t="str">
-        <f>IF(D104="","",IF($E$5="OUI",WORKDAY(E104,IF(WEEKDAY(E104,2)&gt;=6,F104,F104-1)),E104+F104-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="7:7" ht="13" customHeight="1">
       <c r="G105" s="35" t="str">
-        <f>IF(D105="","",IF($E$5="OUI",WORKDAY(E105,IF(WEEKDAY(E105,2)&gt;=6,F105,F105-1)),E105+F105-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="7:7" ht="13" customHeight="1">
       <c r="G106" s="35" t="str">
-        <f>IF(D106="","",IF($E$5="OUI",WORKDAY(E106,IF(WEEKDAY(E106,2)&gt;=6,F106,F106-1)),E106+F106-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="7:7" ht="13" customHeight="1">
       <c r="G107" s="35" t="str">
-        <f>IF(D107="","",IF($E$5="OUI",WORKDAY(E107,IF(WEEKDAY(E107,2)&gt;=6,F107,F107-1)),E107+F107-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="7:7" ht="13" customHeight="1">
       <c r="G108" s="35" t="str">
-        <f>IF(D108="","",IF($E$5="OUI",WORKDAY(E108,IF(WEEKDAY(E108,2)&gt;=6,F108,F108-1)),E108+F108-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="7:7">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="7:7" ht="13" customHeight="1">
       <c r="G109" s="35" t="str">
-        <f>IF(D109="","",IF($E$5="OUI",WORKDAY(E109,IF(WEEKDAY(E109,2)&gt;=6,F109,F109-1)),E109+F109-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="7:7">
       <c r="G110" s="35" t="str">
-        <f>IF(D110="","",IF($E$5="OUI",WORKDAY(E110,IF(WEEKDAY(E110,2)&gt;=6,F110,F110-1)),E110+F110-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="7:7">
       <c r="G111" s="35" t="str">
-        <f>IF(D111="","",IF($E$5="OUI",WORKDAY(E111,IF(WEEKDAY(E111,2)&gt;=6,F111,F111-1)),E111+F111-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="7:7">
       <c r="G112" s="35" t="str">
-        <f>IF(D112="","",IF($E$5="OUI",WORKDAY(E112,IF(WEEKDAY(E112,2)&gt;=6,F112,F112-1)),E112+F112-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="7:7">
       <c r="G113" s="35" t="str">
-        <f>IF(D113="","",IF($E$5="OUI",WORKDAY(E113,IF(WEEKDAY(E113,2)&gt;=6,F113,F113-1)),E113+F113-1))</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="7:7">
       <c r="G114" s="35" t="str">
-        <f>IF(D114="","",IF($E$5="OUI",WORKDAY(E114,IF(WEEKDAY(E114,2)&gt;=6,F114,F114-1)),E114+F114-1))</f>
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115" s="35" t="str">
+        <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E2:G2"/>
@@ -5595,211 +5287,136 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:DR8">
-    <cfRule type="expression" dxfId="75" priority="37">
+    <cfRule type="expression" dxfId="30" priority="37">
       <formula>J8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:EU7">
-    <cfRule type="expression" dxfId="74" priority="36">
+    <cfRule type="expression" dxfId="29" priority="36">
       <formula>K10&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:EU7 K8:DR10">
-    <cfRule type="expression" dxfId="73" priority="34">
+    <cfRule type="expression" dxfId="28" priority="34">
       <formula>K$10=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H18 H39 I45:DN45 H41:H117">
-    <cfRule type="expression" dxfId="72" priority="28">
+  <conditionalFormatting sqref="H11:H18 H40 I46:DN46 H42:H118">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$D11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="71" priority="60">
+  <conditionalFormatting sqref="J37:BQ37">
+    <cfRule type="expression" dxfId="26" priority="60">
       <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="70" priority="69" stopIfTrue="1">
+  <conditionalFormatting sqref="J37:BQ38 BB41:BC41 AV34:AY34 AN31:AQ31 CH45:CW45">
+    <cfRule type="expression" dxfId="25" priority="69" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="70">
-      <formula>AND(J$7&gt;=$E36,J$7&lt;=$G36,J$7&lt;=$I36,$H36&gt;0)</formula>
+    <cfRule type="expression" dxfId="24" priority="70">
+      <formula>AND(J$7&gt;=$E31,J$7&lt;=$G31,J$7&lt;=$I31,$H31&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="71">
-      <formula>AND(J$7&gt;=$E36,J$7&lt;=$G36,J$7&gt;=$I36,J$7&gt;=TODAY())</formula>
+    <cfRule type="expression" dxfId="23" priority="71">
+      <formula>AND(J$7&gt;=$E31,J$7&lt;=$G31,J$7&gt;=$I31,J$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="72">
-      <formula>AND(J$7&gt;=$E36,J$7&lt;=$G36,J$7&gt;=$I36)</formula>
+    <cfRule type="expression" dxfId="22" priority="72">
+      <formula>AND(J$7&gt;=$E31,J$7&lt;=$G31,J$7&gt;=$I31)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H33 H36 H40">
-    <cfRule type="expression" dxfId="66" priority="90">
+  <conditionalFormatting sqref="H37 H41 H19:H34">
+    <cfRule type="expression" dxfId="21" priority="90">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="65" priority="91">
+    <cfRule type="expression" dxfId="20" priority="91">
       <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="64" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="127" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="128">
+    <cfRule type="expression" dxfId="18" priority="128">
       <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&lt;=$I19,$H19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="129">
+    <cfRule type="expression" dxfId="17" priority="129">
       <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&gt;=$I19,J$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="130">
+    <cfRule type="expression" dxfId="16" priority="130">
       <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&gt;=$I19)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="60" priority="192">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="15" priority="192">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:BQ37">
-    <cfRule type="expression" dxfId="59" priority="194">
+  <conditionalFormatting sqref="J38:BQ38">
+    <cfRule type="expression" dxfId="14" priority="194">
       <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:BQ37">
-    <cfRule type="expression" dxfId="58" priority="201" stopIfTrue="1">
-      <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="202">
-      <formula>AND(J$7&gt;=$E37,J$7&lt;=$G37,J$7&lt;=$I37,$H37&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="203">
-      <formula>AND(J$7&gt;=$E37,J$7&lt;=$G37,J$7&gt;=$I37,J$7&gt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="204">
-      <formula>AND(J$7&gt;=$E37,J$7&lt;=$G37,J$7&gt;=$I37)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:EU7 J8:DR9 BR10:DR11 J10:BQ17 J18:DR18 BR41:DR41 J39:BQ39 DO45:DR45 J46:BQ114 J41:BQ44">
-    <cfRule type="expression" dxfId="54" priority="205">
+  <conditionalFormatting sqref="J7:EU7 J8:DR9 BR10:DR11 J10:BQ17 J18:DR18 BR42:DR42 J40:BQ40 DO46:DR46 J47:BQ115 J42:BQ45">
+    <cfRule type="expression" dxfId="13" priority="205">
       <formula>AND(J$7=$I$2,$D7&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:BQ17 J18:DR18 BR41:DR41 J39:BQ39 DO45:DR45 J46:BQ114 J41:BQ44">
-    <cfRule type="expression" dxfId="53" priority="214" stopIfTrue="1">
+  <conditionalFormatting sqref="J12:BQ17 J18:DR18 BR42:DR42 J40:BQ40 DO46:DR46 J47:BQ115 J42:BQ45">
+    <cfRule type="expression" dxfId="12" priority="214" stopIfTrue="1">
       <formula>$D12=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="215">
+    <cfRule type="expression" dxfId="11" priority="215">
       <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&lt;=$I12,$H12&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="216">
+    <cfRule type="expression" dxfId="10" priority="216">
       <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&gt;=$I12,J$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="217">
+    <cfRule type="expression" dxfId="9" priority="217">
       <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&gt;=$I12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB40:BC40">
-    <cfRule type="expression" dxfId="49" priority="21">
+  <conditionalFormatting sqref="BB41:BC41">
+    <cfRule type="expression" dxfId="8" priority="21">
       <formula>AND(BB$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB40:BC40">
-    <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
-      <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="23">
-      <formula>AND(BB$7&gt;=$E40,BB$7&lt;=$G40,BB$7&lt;=$I40,$H40&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="24">
-      <formula>AND(BB$7&gt;=$E40,BB$7&lt;=$G40,BB$7&gt;=$I40,BB$7&gt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="25">
-      <formula>AND(BB$7&gt;=$E40,BB$7&lt;=$G40,BB$7&gt;=$I40)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV33:AY33">
-    <cfRule type="expression" dxfId="39" priority="16">
+  <conditionalFormatting sqref="AV34:AY34">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>AND(AV$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV33:AY33">
-    <cfRule type="expression" dxfId="37" priority="17" stopIfTrue="1">
-      <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="18">
-      <formula>AND(AV$7&gt;=$E33,AV$7&lt;=$G33,AV$7&lt;=$I33,$H33&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="19">
-      <formula>AND(AV$7&gt;=$E33,AV$7&lt;=$G33,AV$7&gt;=$I33,AV$7&gt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
-      <formula>AND(AV$7&gt;=$E33,AV$7&lt;=$G33,AV$7&gt;=$I33)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN30:AQ30">
-    <cfRule type="expression" dxfId="29" priority="11">
+  <conditionalFormatting sqref="AN31:AQ31">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>AND(AN$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN30:AQ30">
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
-      <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="13">
-      <formula>AND(AN$7&gt;=$E30,AN$7&lt;=$G30,AN$7&lt;=$I30,$H30&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
-      <formula>AND(AN$7&gt;=$E30,AN$7&lt;=$G30,AN$7&gt;=$I30,AN$7&gt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
-      <formula>AND(AN$7&gt;=$E30,AN$7&lt;=$G30,AN$7&gt;=$I30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK24:AL24">
-    <cfRule type="expression" dxfId="19" priority="6">
+  <conditionalFormatting sqref="AK25:AL25">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(AK$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK24:AL24">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="AK25:AL25">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>AND(AK$7&gt;=$E24,AK$7&lt;=$G24,AK$7&lt;=$I24,$H24&gt;0)</formula>
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>AND(AK$7&gt;=$E25,AK$7&lt;=$G25,AK$7&lt;=$I25,$H25&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>AND(AK$7&gt;=$E24,AK$7&lt;=$G24,AK$7&gt;=$I24,AK$7&gt;=TODAY())</formula>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>AND(AK$7&gt;=$E25,AK$7&lt;=$G25,AK$7&gt;=$I25,AK$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>AND(AK$7&gt;=$E24,AK$7&lt;=$G24,AK$7&gt;=$I24)</formula>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>AND(AK$7&gt;=$E25,AK$7&lt;=$G25,AK$7&gt;=$I25)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH44:CW44">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="CH45:CW45">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(CH$7=$I$2,#REF!&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH44:CW44">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
-      <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>AND(CH$7&gt;=$E44,CH$7&lt;=$G44,CH$7&lt;=$I44,$H44&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND(CH$7&gt;=$E44,CH$7&lt;=$G44,CH$7&gt;=$I44,CH$7&gt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(CH$7&gt;=$E44,CH$7&lt;=$G44,CH$7&gt;=$I44)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5808,7 +5425,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
